--- a/actitud.xlsx
+++ b/actitud.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ef4cc4ddfd4d7cd1/Github/Progreso/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="28" documentId="11_F25DC773A252ABDACC10482D291E55885BDE58EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{33B49891-2E87-4D67-8C40-E186867F7632}"/>
+  <xr:revisionPtr revIDLastSave="40" documentId="11_F25DC773A252ABDACC10482D291E55885BDE58EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BC3FBC53-83A5-4443-926C-1813DA9B81BC}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Astronauta" sheetId="1" r:id="rId1"/>
@@ -245,6 +245,14 @@
 </file>
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/persons/person0.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/persons/person1.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
@@ -513,8 +521,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -567,9 +575,36 @@
       <c r="B2">
         <v>1</v>
       </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
       <c r="L2">
         <f>IFERROR(SUM(B2:K2)/COUNT(B2:K2)*100, 0)</f>
-        <v>100</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
@@ -1169,8 +1204,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE015ABD-4175-4D18-A09E-4C4A7888DCD3}">
   <dimension ref="A1:L27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:L27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1217,9 +1252,18 @@
       <c r="A2" t="s">
         <v>1</v>
       </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
       <c r="L2">
         <f>IFERROR(SUM(B2:K2)/COUNT(B2:K2)*100, 0)</f>
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">

--- a/actitud.xlsx
+++ b/actitud.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ef4cc4ddfd4d7cd1/Github/Progreso/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="40" documentId="11_F25DC773A252ABDACC10482D291E55885BDE58EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BC3FBC53-83A5-4443-926C-1813DA9B81BC}"/>
+  <xr:revisionPtr revIDLastSave="41" documentId="11_F25DC773A252ABDACC10482D291E55885BDE58EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9E8CDA78-A8BA-4C3D-A9B1-06B1029AF28C}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Astronauta" sheetId="1" r:id="rId1"/>
     <sheet name="Senador" sheetId="2" r:id="rId2"/>
     <sheet name="Mago" sheetId="3" r:id="rId3"/>
-    <sheet name="Guerrero" sheetId="4" r:id="rId4"/>
+    <sheet name="Ninja" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -253,6 +253,10 @@
 </file>
 
 <file path=xl/persons/person1.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/persons/person2.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 

--- a/actitud.xlsx
+++ b/actitud.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ef4cc4ddfd4d7cd1/Github/Progreso/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="41" documentId="11_F25DC773A252ABDACC10482D291E55885BDE58EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9E8CDA78-A8BA-4C3D-A9B1-06B1029AF28C}"/>
+  <xr:revisionPtr revIDLastSave="42" documentId="11_F25DC773A252ABDACC10482D291E55885BDE58EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7ACD0B9E-2041-4DA8-A362-D23315F52848}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15360" yWindow="0" windowWidth="15360" windowHeight="16680" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Astronauta" sheetId="1" r:id="rId1"/>
@@ -525,7 +525,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
@@ -1504,8 +1504,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D45A07B9-F651-41BC-A481-395AA628394B}">
   <dimension ref="A1:P27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J26" sqref="J26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1567,6 +1567,9 @@
       <c r="B2">
         <v>1</v>
       </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
       <c r="P2">
         <f>IFERROR(SUM(B2:O2)/COUNT(B2:O2)*100, 0)</f>
         <v>100</v>

--- a/actitud.xlsx
+++ b/actitud.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ef4cc4ddfd4d7cd1/Github/Progreso/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ef4cc4ddfd4d7cd1/Github/3C/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="42" documentId="11_F25DC773A252ABDACC10482D291E55885BDE58EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7ACD0B9E-2041-4DA8-A362-D23315F52848}"/>
+  <xr:revisionPtr revIDLastSave="94" documentId="11_F25DC773A252ABDACC10482D291E55885BDE58EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B8CE2F47-72D7-4EFC-B8CF-7B37487A235E}"/>
   <bookViews>
-    <workbookView xWindow="15360" yWindow="0" windowWidth="15360" windowHeight="16680" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Astronauta" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Mago" sheetId="3" r:id="rId3"/>
     <sheet name="Ninja" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,89 +28,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="53">
   <si>
     <t>Alumnos</t>
   </si>
   <si>
-    <t>Alumno 1</t>
-  </si>
-  <si>
-    <t>Alumno 2</t>
-  </si>
-  <si>
-    <t>Alumno 3</t>
-  </si>
-  <si>
-    <t>Alumno 4</t>
-  </si>
-  <si>
-    <t>Alumno 5</t>
-  </si>
-  <si>
-    <t>Alumno 6</t>
-  </si>
-  <si>
-    <t>Alumno 7</t>
-  </si>
-  <si>
-    <t>Alumno 8</t>
-  </si>
-  <si>
-    <t>Alumno 9</t>
-  </si>
-  <si>
-    <t>Alumno 10</t>
-  </si>
-  <si>
-    <t>Alumno 11</t>
-  </si>
-  <si>
-    <t>Alumno 12</t>
-  </si>
-  <si>
-    <t>Alumno 13</t>
-  </si>
-  <si>
-    <t>Alumno 14</t>
-  </si>
-  <si>
-    <t>Alumno 15</t>
-  </si>
-  <si>
-    <t>Alumno 16</t>
-  </si>
-  <si>
-    <t>Alumno 17</t>
-  </si>
-  <si>
-    <t>Alumno 18</t>
-  </si>
-  <si>
-    <t>Alumno 19</t>
-  </si>
-  <si>
-    <t>Alumno 20</t>
-  </si>
-  <si>
-    <t>Alumno 21</t>
-  </si>
-  <si>
-    <t>Alumno 22</t>
-  </si>
-  <si>
-    <t>Alumno 23</t>
-  </si>
-  <si>
-    <t>Alumno 24</t>
-  </si>
-  <si>
-    <t>Alumno 25</t>
-  </si>
-  <si>
-    <t>Alumno 26</t>
-  </si>
-  <si>
     <t>S1</t>
   </si>
   <si>
@@ -126,15 +48,15 @@
     <t>S5</t>
   </si>
   <si>
+    <t>S6</t>
+  </si>
+  <si>
     <t>S7</t>
   </si>
   <si>
     <t>S8</t>
   </si>
   <si>
-    <t>S6</t>
-  </si>
-  <si>
     <t>S9</t>
   </si>
   <si>
@@ -142,6 +64,87 @@
   </si>
   <si>
     <t>Resultados</t>
+  </si>
+  <si>
+    <t>Rodrigo Abal</t>
+  </si>
+  <si>
+    <t>Diego Barreiro</t>
+  </si>
+  <si>
+    <t>Brais Bastón</t>
+  </si>
+  <si>
+    <t>Sara Carballeira</t>
+  </si>
+  <si>
+    <t>Miguel Casas</t>
+  </si>
+  <si>
+    <t>Juan David Cifuentes</t>
+  </si>
+  <si>
+    <t>Daniel Clemente</t>
+  </si>
+  <si>
+    <t>Sara Dacuña</t>
+  </si>
+  <si>
+    <t>Lara Fernández</t>
+  </si>
+  <si>
+    <t>Carla Fontenla</t>
+  </si>
+  <si>
+    <t>Mateo Fuentes</t>
+  </si>
+  <si>
+    <t>Martín González</t>
+  </si>
+  <si>
+    <t>María González</t>
+  </si>
+  <si>
+    <t>Pablo Lago</t>
+  </si>
+  <si>
+    <t>Javier Lois</t>
+  </si>
+  <si>
+    <t>Lucas Martínez</t>
+  </si>
+  <si>
+    <t>Pedro Pablo Martínez</t>
+  </si>
+  <si>
+    <t>Jimena Orellana</t>
+  </si>
+  <si>
+    <t>Daniela Penido</t>
+  </si>
+  <si>
+    <t>Noa Pinero</t>
+  </si>
+  <si>
+    <t>Diego Ríos</t>
+  </si>
+  <si>
+    <t>Pablo Rivas</t>
+  </si>
+  <si>
+    <t>Sabela Rodríguez</t>
+  </si>
+  <si>
+    <t>Eduardo Sánchez</t>
+  </si>
+  <si>
+    <t>Matilda Sariego</t>
+  </si>
+  <si>
+    <t>Icía Sobral</t>
+  </si>
+  <si>
+    <t>Lino Solla</t>
   </si>
   <si>
     <t>T1</t>
@@ -242,22 +245,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
-<file path=xl/persons/person0.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
-<file path=xl/persons/person1.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
-<file path=xl/persons/person2.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -523,392 +510,297 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L27"/>
+  <dimension ref="A1:L28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="L27" sqref="L27:L28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="12" max="12" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.1796875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>31</v>
+        <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>34</v>
+        <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="I1" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="J1" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="K1" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="L1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2">
-        <v>1</v>
-      </c>
-      <c r="H2">
-        <v>1</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-      <c r="K2">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="L2">
         <f>IFERROR(SUM(B2:K2)/COUNT(B2:K2)*100, 0)</f>
-        <v>40</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="L3">
-        <f t="shared" ref="L3:L27" si="0">IFERROR(SUM(B3:K3)/COUNT(B3:K3)*100, 0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+        <f t="shared" ref="L3:L28" si="0">IFERROR(SUM(B3:K3)/COUNT(B3:K3)*100, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="L4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="L6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="L7">
         <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="L8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="L9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="L11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="L12">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="L13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="L14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="L15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="L16">
         <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="L17">
         <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="L18">
         <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>18</v>
-      </c>
-      <c r="B19">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="L19">
         <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>19</v>
-      </c>
-      <c r="B20">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="L20">
         <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>20</v>
-      </c>
-      <c r="B21">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="L21">
         <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>21</v>
-      </c>
-      <c r="B22">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="L22">
         <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>22</v>
-      </c>
-      <c r="B23">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="L23">
         <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>23</v>
-      </c>
-      <c r="B24">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="L24">
         <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="L25">
         <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>25</v>
-      </c>
-      <c r="B26">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="L26">
         <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>26</v>
-      </c>
-      <c r="B27">
-        <v>1</v>
+        <v>37</v>
       </c>
       <c r="L27">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>38</v>
+      </c>
+      <c r="L28">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -919,282 +811,294 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76A2E164-804C-4A26-8EDD-0B1C83E35910}">
-  <dimension ref="A1:L27"/>
+  <dimension ref="A1:L28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:L27"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="L27" sqref="L27:L28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="20.1796875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>31</v>
+        <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>34</v>
+        <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="I1" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="J1" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="K1" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="L1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="L2">
         <f>IFERROR(SUM(B2:K2)/COUNT(B2:K2)*100, 0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="L3">
-        <f t="shared" ref="L3:L27" si="0">IFERROR(SUM(B3:K3)/COUNT(B3:K3)*100, 0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+        <f t="shared" ref="L3:L28" si="0">IFERROR(SUM(B3:K3)/COUNT(B3:K3)*100, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="L4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="L5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="L6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="L7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="L8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="L9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="L10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="L11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="L12">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="L13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="L14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="L15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="L16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="L17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="L18">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="L19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="L20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="L21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="L22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="L23">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="L24">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="L25">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="L26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="L27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>38</v>
+      </c>
+      <c r="L28">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1206,291 +1110,294 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE015ABD-4175-4D18-A09E-4C4A7888DCD3}">
-  <dimension ref="A1:L27"/>
+  <dimension ref="A1:L28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="L27" sqref="L27:L28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="20.1796875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>31</v>
+        <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>34</v>
+        <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="I1" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="J1" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="K1" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="L1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="L2">
         <f>IFERROR(SUM(B2:K2)/COUNT(B2:K2)*100, 0)</f>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="L3">
-        <f t="shared" ref="L3:L27" si="0">IFERROR(SUM(B3:K3)/COUNT(B3:K3)*100, 0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+        <f t="shared" ref="L3:L28" si="0">IFERROR(SUM(B3:K3)/COUNT(B3:K3)*100, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="L4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="L5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="L6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="L7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="L8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="L9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="L10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="L11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="L12">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="L13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="L14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="L15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="L16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="L17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="L18">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="L19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="L20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="L21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="L22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="L23">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="L24">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="L25">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="L26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="L27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>38</v>
+      </c>
+      <c r="L28">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1502,377 +1409,308 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D45A07B9-F651-41BC-A481-395AA628394B}">
-  <dimension ref="A1:P27"/>
+  <dimension ref="A1:P28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="P27" sqref="P27:P28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="20.1796875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="N1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="O1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="P2">
         <f>IFERROR(SUM(B2:O2)/COUNT(B2:O2)*100, 0)</f>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="P3">
-        <f t="shared" ref="P3:P27" si="0">IFERROR(SUM(B3:O3)/COUNT(B3:O3)*100, 0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+        <f t="shared" ref="P3:P28" si="0">IFERROR(SUM(B3:O3)/COUNT(B3:O3)*100, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="P4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="P5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="P6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>0.5</v>
+        <v>17</v>
       </c>
       <c r="P7">
         <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="P8">
         <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="P9">
         <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="P10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="P11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="P12">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="P13">
         <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="P14">
         <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="P15">
         <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="P16">
         <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="P17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="P18">
         <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>18</v>
-      </c>
-      <c r="B19">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="P19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>19</v>
-      </c>
-      <c r="B20">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="P20">
         <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>20</v>
-      </c>
-      <c r="B21">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="P21">
         <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>21</v>
-      </c>
-      <c r="B22">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="P22">
         <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>22</v>
-      </c>
-      <c r="B23">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="P23">
         <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>23</v>
-      </c>
-      <c r="B24">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="P24">
         <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="P25">
         <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>25</v>
-      </c>
-      <c r="B26">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="P26">
         <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>26</v>
-      </c>
-      <c r="B27">
-        <v>1</v>
+        <v>37</v>
       </c>
       <c r="P27">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>38</v>
+      </c>
+      <c r="P28">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/actitud.xlsx
+++ b/actitud.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ef4cc4ddfd4d7cd1/Github/3C/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="94" documentId="11_F25DC773A252ABDACC10482D291E55885BDE58EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B8CE2F47-72D7-4EFC-B8CF-7B37487A235E}"/>
+  <xr:revisionPtr revIDLastSave="104" documentId="11_F25DC773A252ABDACC10482D291E55885BDE58EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BB784CFB-AF48-43E7-85C4-B93C4A91C66E}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15360" yWindow="0" windowWidth="15360" windowHeight="16680" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Astronauta" sheetId="1" r:id="rId1"/>
@@ -245,6 +245,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -512,17 +516,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L28"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L27" sqref="L27:L28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.1796875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.21875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -560,7 +564,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -569,7 +573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -578,7 +582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -587,7 +591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -596,7 +600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -605,7 +609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -614,7 +618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -623,7 +627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -632,7 +636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -641,7 +645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -650,7 +654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -659,7 +663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>23</v>
       </c>
@@ -668,7 +672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>24</v>
       </c>
@@ -677,7 +681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>25</v>
       </c>
@@ -686,7 +690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>26</v>
       </c>
@@ -695,7 +699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>27</v>
       </c>
@@ -704,7 +708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>28</v>
       </c>
@@ -713,7 +717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>29</v>
       </c>
@@ -722,7 +726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>30</v>
       </c>
@@ -731,7 +735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>31</v>
       </c>
@@ -740,7 +744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>32</v>
       </c>
@@ -749,7 +753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>33</v>
       </c>
@@ -758,7 +762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>34</v>
       </c>
@@ -767,7 +771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>35</v>
       </c>
@@ -776,7 +780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>36</v>
       </c>
@@ -785,7 +789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>37</v>
       </c>
@@ -794,7 +798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>38</v>
       </c>
@@ -817,12 +821,12 @@
       <selection activeCell="L27" sqref="L27:L28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -860,7 +864,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -869,7 +873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -878,7 +882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -887,7 +891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -896,7 +900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -905,7 +909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -914,7 +918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -923,7 +927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -932,7 +936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -941,7 +945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -950,7 +954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -959,7 +963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>23</v>
       </c>
@@ -968,7 +972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>24</v>
       </c>
@@ -977,7 +981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>25</v>
       </c>
@@ -986,7 +990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>26</v>
       </c>
@@ -995,7 +999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>27</v>
       </c>
@@ -1004,7 +1008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>28</v>
       </c>
@@ -1013,7 +1017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>29</v>
       </c>
@@ -1022,7 +1026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>30</v>
       </c>
@@ -1031,7 +1035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>31</v>
       </c>
@@ -1040,7 +1044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>32</v>
       </c>
@@ -1049,7 +1053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>33</v>
       </c>
@@ -1058,7 +1062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>34</v>
       </c>
@@ -1067,7 +1071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>35</v>
       </c>
@@ -1076,7 +1080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>36</v>
       </c>
@@ -1085,7 +1089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>37</v>
       </c>
@@ -1094,7 +1098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>38</v>
       </c>
@@ -1116,12 +1120,12 @@
       <selection activeCell="L27" sqref="L27:L28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1159,7 +1163,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -1168,7 +1172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -1177,7 +1181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -1186,7 +1190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -1195,7 +1199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -1204,7 +1208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -1213,7 +1217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -1222,7 +1226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -1231,7 +1235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -1240,7 +1244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -1249,7 +1253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -1258,7 +1262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>23</v>
       </c>
@@ -1267,7 +1271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>24</v>
       </c>
@@ -1276,7 +1280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>25</v>
       </c>
@@ -1285,7 +1289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>26</v>
       </c>
@@ -1294,7 +1298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>27</v>
       </c>
@@ -1303,7 +1307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>28</v>
       </c>
@@ -1312,7 +1316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>29</v>
       </c>
@@ -1321,7 +1325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>30</v>
       </c>
@@ -1330,7 +1334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>31</v>
       </c>
@@ -1339,7 +1343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>32</v>
       </c>
@@ -1348,7 +1352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>33</v>
       </c>
@@ -1357,7 +1361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>34</v>
       </c>
@@ -1366,7 +1370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>35</v>
       </c>
@@ -1375,7 +1379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>36</v>
       </c>
@@ -1384,7 +1388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>37</v>
       </c>
@@ -1393,7 +1397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>38</v>
       </c>
@@ -1411,16 +1415,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D45A07B9-F651-41BC-A481-395AA628394B}">
   <dimension ref="A1:P28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="P27" sqref="P27:P28"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1470,247 +1474,328 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>12</v>
       </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
       <c r="P2">
         <f>IFERROR(SUM(B2:O2)/COUNT(B2:O2)*100, 0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>13</v>
       </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
       <c r="P3">
         <f t="shared" ref="P3:P28" si="0">IFERROR(SUM(B3:O3)/COUNT(B3:O3)*100, 0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>14</v>
       </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
       <c r="P4">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>15</v>
       </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
       <c r="P5">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>16</v>
       </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
       <c r="P6">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>17</v>
       </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
       <c r="P7">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>18</v>
       </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
       <c r="P8">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>19</v>
       </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
       <c r="P9">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>20</v>
       </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
       <c r="P10">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>21</v>
       </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
       <c r="P11">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>22</v>
       </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
       <c r="P12">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>23</v>
       </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
       <c r="P13">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>24</v>
       </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
       <c r="P14">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>25</v>
       </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
       <c r="P15">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>26</v>
       </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
       <c r="P16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>27</v>
       </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
       <c r="P17">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.35">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>28</v>
       </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
       <c r="P18">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>29</v>
       </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
       <c r="P19">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.35">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>30</v>
       </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
       <c r="P20">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.35">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>31</v>
       </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
       <c r="P21">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.35">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>32</v>
       </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
       <c r="P22">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.35">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>33</v>
       </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
       <c r="P23">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.35">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>34</v>
       </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
       <c r="P24">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>35</v>
       </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
       <c r="P25">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.35">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>36</v>
       </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
       <c r="P26">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.35">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>37</v>
       </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
       <c r="P27">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.35">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>38</v>
       </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
       <c r="P28">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/actitud.xlsx
+++ b/actitud.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ef4cc4ddfd4d7cd1/Github/3C/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="104" documentId="11_F25DC773A252ABDACC10482D291E55885BDE58EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BB784CFB-AF48-43E7-85C4-B93C4A91C66E}"/>
+  <xr:revisionPtr revIDLastSave="106" documentId="11_F25DC773A252ABDACC10482D291E55885BDE58EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5B5B9D94-5E08-48D7-B1C0-CF124DEE4488}"/>
   <bookViews>
-    <workbookView xWindow="15360" yWindow="0" windowWidth="15360" windowHeight="16680" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15360" yWindow="0" windowWidth="15360" windowHeight="16680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Astronauta" sheetId="1" r:id="rId1"/>
@@ -193,7 +193,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -203,6 +203,14 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -228,8 +236,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -248,6 +257,10 @@
 </file>
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/persons/person0.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
@@ -516,8 +529,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L27" sqref="L27:L28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -568,15 +581,19 @@
       <c r="A2" t="s">
         <v>12</v>
       </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
       <c r="L2">
         <f>IFERROR(SUM(B2:K2)/COUNT(B2:K2)*100, 0)</f>
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>13</v>
       </c>
+      <c r="B3" s="1"/>
       <c r="L3">
         <f t="shared" ref="L3:L28" si="0">IFERROR(SUM(B3:K3)/COUNT(B3:K3)*100, 0)</f>
         <v>0</v>
@@ -1415,7 +1432,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D45A07B9-F651-41BC-A481-395AA628394B}">
   <dimension ref="A1:P28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>

--- a/actitud.xlsx
+++ b/actitud.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ef4cc4ddfd4d7cd1/Github/3C/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="106" documentId="11_F25DC773A252ABDACC10482D291E55885BDE58EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5B5B9D94-5E08-48D7-B1C0-CF124DEE4488}"/>
+  <xr:revisionPtr revIDLastSave="107" documentId="11_F25DC773A252ABDACC10482D291E55885BDE58EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B1376871-49CA-4EA1-A318-9B24F79E0C59}"/>
   <bookViews>
     <workbookView xWindow="15360" yWindow="0" windowWidth="15360" windowHeight="16680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -261,6 +261,10 @@
 </file>
 
 <file path=xl/persons/person0.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/persons/person1.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
@@ -530,7 +534,7 @@
   <dimension ref="A1:L28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -581,12 +585,9 @@
       <c r="A2" t="s">
         <v>12</v>
       </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
       <c r="L2">
         <f>IFERROR(SUM(B2:K2)/COUNT(B2:K2)*100, 0)</f>
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">

--- a/actitud.xlsx
+++ b/actitud.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ef4cc4ddfd4d7cd1/Github/3C/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="107" documentId="11_F25DC773A252ABDACC10482D291E55885BDE58EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B1376871-49CA-4EA1-A318-9B24F79E0C59}"/>
+  <xr:revisionPtr revIDLastSave="126" documentId="11_F25DC773A252ABDACC10482D291E55885BDE58EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7E2F8DA1-3010-48E5-95B9-9A1C1379941D}"/>
   <bookViews>
-    <workbookView xWindow="15360" yWindow="0" windowWidth="15360" windowHeight="16680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Astronauta" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="54">
   <si>
     <t>Alumnos</t>
   </si>
@@ -187,13 +187,16 @@
   </si>
   <si>
     <t>T14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xulia Teixeira </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -203,14 +206,6 @@
     </font>
     <font>
       <sz val="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -236,9 +231,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -261,10 +255,6 @@
 </file>
 
 <file path=xl/persons/person0.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
-<file path=xl/persons/person1.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
@@ -531,16 +521,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L28"/>
+  <dimension ref="A1:L29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.21875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
@@ -585,6 +575,9 @@
       <c r="A2" t="s">
         <v>12</v>
       </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
       <c r="L2">
         <f>IFERROR(SUM(B2:K2)/COUNT(B2:K2)*100, 0)</f>
         <v>0</v>
@@ -594,9 +587,11 @@
       <c r="A3" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="1"/>
+      <c r="B3">
+        <v>0</v>
+      </c>
       <c r="L3">
-        <f t="shared" ref="L3:L28" si="0">IFERROR(SUM(B3:K3)/COUNT(B3:K3)*100, 0)</f>
+        <f t="shared" ref="L3:L29" si="0">IFERROR(SUM(B3:K3)/COUNT(B3:K3)*100, 0)</f>
         <v>0</v>
       </c>
     </row>
@@ -604,6 +599,9 @@
       <c r="A4" t="s">
         <v>14</v>
       </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
       <c r="L4">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -613,15 +611,21 @@
       <c r="A5" t="s">
         <v>15</v>
       </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
       <c r="L5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>16</v>
       </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
       <c r="L6">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -631,6 +635,9 @@
       <c r="A7" t="s">
         <v>17</v>
       </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
       <c r="L7">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -640,6 +647,9 @@
       <c r="A8" t="s">
         <v>18</v>
       </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
       <c r="L8">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -649,15 +659,21 @@
       <c r="A9" t="s">
         <v>19</v>
       </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
       <c r="L9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>20</v>
       </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
       <c r="L10">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -667,6 +683,9 @@
       <c r="A11" t="s">
         <v>21</v>
       </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
       <c r="L11">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -676,6 +695,9 @@
       <c r="A12" t="s">
         <v>22</v>
       </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
       <c r="L12">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -685,6 +707,9 @@
       <c r="A13" t="s">
         <v>23</v>
       </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
       <c r="L13">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -694,6 +719,9 @@
       <c r="A14" t="s">
         <v>24</v>
       </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
       <c r="L14">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -703,6 +731,9 @@
       <c r="A15" t="s">
         <v>25</v>
       </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
       <c r="L15">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -712,6 +743,9 @@
       <c r="A16" t="s">
         <v>26</v>
       </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
       <c r="L16">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -721,24 +755,33 @@
       <c r="A17" t="s">
         <v>27</v>
       </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
       <c r="L17">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>28</v>
       </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
       <c r="L18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>29</v>
       </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
       <c r="L19">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -748,15 +791,21 @@
       <c r="A20" t="s">
         <v>30</v>
       </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
       <c r="L20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>31</v>
       </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
       <c r="L21">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -766,6 +815,9 @@
       <c r="A22" t="s">
         <v>32</v>
       </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
       <c r="L22">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -775,42 +827,57 @@
       <c r="A23" t="s">
         <v>33</v>
       </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
       <c r="L23">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>34</v>
       </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
       <c r="L24">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>35</v>
       </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
       <c r="L25">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>36</v>
       </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
       <c r="L26">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>37</v>
       </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
       <c r="L27">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -820,9 +887,24 @@
       <c r="A28" t="s">
         <v>38</v>
       </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
       <c r="L28">
         <f t="shared" si="0"/>
         <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>53</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="L29">
+        <f t="shared" si="0"/>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -833,15 +915,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76A2E164-804C-4A26-8EDD-0B1C83E35910}">
-  <dimension ref="A1:L28"/>
+  <dimension ref="A1:L29"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="L27" sqref="L27:L28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
@@ -886,6 +968,9 @@
       <c r="A2" t="s">
         <v>12</v>
       </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
       <c r="L2">
         <f>IFERROR(SUM(B2:K2)/COUNT(B2:K2)*100, 0)</f>
         <v>0</v>
@@ -895,6 +980,9 @@
       <c r="A3" t="s">
         <v>13</v>
       </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
       <c r="L3">
         <f t="shared" ref="L3:L28" si="0">IFERROR(SUM(B3:K3)/COUNT(B3:K3)*100, 0)</f>
         <v>0</v>
@@ -904,24 +992,33 @@
       <c r="A4" t="s">
         <v>14</v>
       </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
       <c r="L4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>15</v>
       </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
       <c r="L5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>16</v>
       </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
       <c r="L6">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -931,6 +1028,9 @@
       <c r="A7" t="s">
         <v>17</v>
       </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
       <c r="L7">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -940,6 +1040,9 @@
       <c r="A8" t="s">
         <v>18</v>
       </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
       <c r="L8">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -949,6 +1052,9 @@
       <c r="A9" t="s">
         <v>19</v>
       </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
       <c r="L9">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -958,24 +1064,33 @@
       <c r="A10" t="s">
         <v>20</v>
       </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
       <c r="L10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>21</v>
       </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
       <c r="L11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>22</v>
       </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
       <c r="L12">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -985,6 +1100,9 @@
       <c r="A13" t="s">
         <v>23</v>
       </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
       <c r="L13">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -994,6 +1112,9 @@
       <c r="A14" t="s">
         <v>24</v>
       </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
       <c r="L14">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1003,6 +1124,9 @@
       <c r="A15" t="s">
         <v>25</v>
       </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
       <c r="L15">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1012,6 +1136,9 @@
       <c r="A16" t="s">
         <v>26</v>
       </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
       <c r="L16">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1021,24 +1148,33 @@
       <c r="A17" t="s">
         <v>27</v>
       </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
       <c r="L17">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>28</v>
       </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
       <c r="L18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>29</v>
       </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
       <c r="L19">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1048,24 +1184,33 @@
       <c r="A20" t="s">
         <v>30</v>
       </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
       <c r="L20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>31</v>
       </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
       <c r="L21">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>32</v>
       </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
       <c r="L22">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1075,33 +1220,45 @@
       <c r="A23" t="s">
         <v>33</v>
       </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
       <c r="L23">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>34</v>
       </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
       <c r="L24">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>35</v>
       </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
       <c r="L25">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>36</v>
       </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
       <c r="L26">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1111,6 +1268,9 @@
       <c r="A27" t="s">
         <v>37</v>
       </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
       <c r="L27">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1120,9 +1280,20 @@
       <c r="A28" t="s">
         <v>38</v>
       </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
       <c r="L28">
         <f t="shared" si="0"/>
         <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>53</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1132,15 +1303,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE015ABD-4175-4D18-A09E-4C4A7888DCD3}">
-  <dimension ref="A1:L28"/>
+  <dimension ref="A1:L29"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="L27" sqref="L27:L28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
@@ -1185,6 +1356,9 @@
       <c r="A2" t="s">
         <v>12</v>
       </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
       <c r="L2">
         <f>IFERROR(SUM(B2:K2)/COUNT(B2:K2)*100, 0)</f>
         <v>0</v>
@@ -1194,8 +1368,11 @@
       <c r="A3" t="s">
         <v>13</v>
       </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
       <c r="L3">
-        <f t="shared" ref="L3:L28" si="0">IFERROR(SUM(B3:K3)/COUNT(B3:K3)*100, 0)</f>
+        <f t="shared" ref="L3:L29" si="0">IFERROR(SUM(B3:K3)/COUNT(B3:K3)*100, 0)</f>
         <v>0</v>
       </c>
     </row>
@@ -1203,24 +1380,33 @@
       <c r="A4" t="s">
         <v>14</v>
       </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
       <c r="L4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>15</v>
       </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
       <c r="L5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>16</v>
       </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
       <c r="L6">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1230,6 +1416,9 @@
       <c r="A7" t="s">
         <v>17</v>
       </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
       <c r="L7">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1239,42 +1428,57 @@
       <c r="A8" t="s">
         <v>18</v>
       </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
       <c r="L8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>19</v>
       </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
       <c r="L9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>20</v>
       </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
       <c r="L10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>21</v>
       </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
       <c r="L11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>22</v>
       </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
       <c r="L12">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1284,6 +1488,9 @@
       <c r="A13" t="s">
         <v>23</v>
       </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
       <c r="L13">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1293,15 +1500,21 @@
       <c r="A14" t="s">
         <v>24</v>
       </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
       <c r="L14">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>25</v>
       </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
       <c r="L15">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1311,105 +1524,141 @@
       <c r="A16" t="s">
         <v>26</v>
       </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
       <c r="L16">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>27</v>
       </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
       <c r="L17">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>28</v>
       </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
       <c r="L18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>29</v>
       </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
       <c r="L19">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>30</v>
       </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
       <c r="L20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>31</v>
       </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
       <c r="L21">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>32</v>
       </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
       <c r="L22">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>33</v>
       </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
       <c r="L23">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>34</v>
       </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
       <c r="L24">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>35</v>
       </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
       <c r="L25">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>36</v>
       </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
       <c r="L26">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>37</v>
       </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
       <c r="L27">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1419,9 +1668,24 @@
       <c r="A28" t="s">
         <v>38</v>
       </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
       <c r="L28">
         <f t="shared" si="0"/>
         <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>53</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="L29">
+        <f t="shared" si="0"/>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -1431,15 +1695,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D45A07B9-F651-41BC-A481-395AA628394B}">
-  <dimension ref="A1:P28"/>
+  <dimension ref="A1:P29"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
@@ -1499,9 +1763,12 @@
       <c r="B2">
         <v>1</v>
       </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
       <c r="P2">
         <f>IFERROR(SUM(B2:O2)/COUNT(B2:O2)*100, 0)</f>
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
@@ -1511,8 +1778,11 @@
       <c r="B3">
         <v>1</v>
       </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
       <c r="P3">
-        <f t="shared" ref="P3:P28" si="0">IFERROR(SUM(B3:O3)/COUNT(B3:O3)*100, 0)</f>
+        <f t="shared" ref="P3:P29" si="0">IFERROR(SUM(B3:O3)/COUNT(B3:O3)*100, 0)</f>
         <v>100</v>
       </c>
     </row>
@@ -1523,6 +1793,9 @@
       <c r="B4">
         <v>1</v>
       </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
       <c r="P4">
         <f t="shared" si="0"/>
         <v>100</v>
@@ -1535,6 +1808,9 @@
       <c r="B5">
         <v>1</v>
       </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
       <c r="P5">
         <f t="shared" si="0"/>
         <v>100</v>
@@ -1547,6 +1823,9 @@
       <c r="B6">
         <v>1</v>
       </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
       <c r="P6">
         <f t="shared" si="0"/>
         <v>100</v>
@@ -1559,6 +1838,9 @@
       <c r="B7">
         <v>1</v>
       </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
       <c r="P7">
         <f t="shared" si="0"/>
         <v>100</v>
@@ -1571,6 +1853,9 @@
       <c r="B8">
         <v>1</v>
       </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
       <c r="P8">
         <f t="shared" si="0"/>
         <v>100</v>
@@ -1583,6 +1868,9 @@
       <c r="B9">
         <v>1</v>
       </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
       <c r="P9">
         <f t="shared" si="0"/>
         <v>100</v>
@@ -1595,6 +1883,9 @@
       <c r="B10">
         <v>1</v>
       </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
       <c r="P10">
         <f t="shared" si="0"/>
         <v>100</v>
@@ -1607,6 +1898,9 @@
       <c r="B11">
         <v>1</v>
       </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
       <c r="P11">
         <f t="shared" si="0"/>
         <v>100</v>
@@ -1619,9 +1913,12 @@
       <c r="B12">
         <v>0</v>
       </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
       <c r="P12">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.3">
@@ -1631,9 +1928,12 @@
       <c r="B13">
         <v>1</v>
       </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
       <c r="P13">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.3">
@@ -1643,6 +1943,9 @@
       <c r="B14">
         <v>1</v>
       </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
       <c r="P14">
         <f t="shared" si="0"/>
         <v>100</v>
@@ -1655,6 +1958,9 @@
       <c r="B15">
         <v>1</v>
       </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
       <c r="P15">
         <f t="shared" si="0"/>
         <v>100</v>
@@ -1667,6 +1973,9 @@
       <c r="B16">
         <v>0</v>
       </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
       <c r="P16">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1679,6 +1988,9 @@
       <c r="B17">
         <v>1</v>
       </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
       <c r="P17">
         <f t="shared" si="0"/>
         <v>100</v>
@@ -1691,9 +2003,12 @@
       <c r="B18">
         <v>0</v>
       </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
       <c r="P18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.3">
@@ -1703,6 +2018,9 @@
       <c r="B19">
         <v>1</v>
       </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
       <c r="P19">
         <f t="shared" si="0"/>
         <v>100</v>
@@ -1715,6 +2033,9 @@
       <c r="B20">
         <v>1</v>
       </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
       <c r="P20">
         <f t="shared" si="0"/>
         <v>100</v>
@@ -1727,6 +2048,9 @@
       <c r="B21">
         <v>1</v>
       </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
       <c r="P21">
         <f t="shared" si="0"/>
         <v>100</v>
@@ -1739,9 +2063,12 @@
       <c r="B22">
         <v>1</v>
       </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
       <c r="P22">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.3">
@@ -1751,6 +2078,9 @@
       <c r="B23">
         <v>1</v>
       </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
       <c r="P23">
         <f t="shared" si="0"/>
         <v>100</v>
@@ -1763,9 +2093,12 @@
       <c r="B24">
         <v>0</v>
       </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
       <c r="P24">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.3">
@@ -1775,6 +2108,9 @@
       <c r="B25">
         <v>1</v>
       </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
       <c r="P25">
         <f t="shared" si="0"/>
         <v>100</v>
@@ -1787,9 +2123,12 @@
       <c r="B26">
         <v>1</v>
       </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
       <c r="P26">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.3">
@@ -1799,9 +2138,12 @@
       <c r="B27">
         <v>1</v>
       </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
       <c r="P27">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.3">
@@ -1811,7 +2153,25 @@
       <c r="B28">
         <v>1</v>
       </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
       <c r="P28">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>53</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="P29">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>

--- a/actitud.xlsx
+++ b/actitud.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ef4cc4ddfd4d7cd1/Github/3C/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="126" documentId="11_F25DC773A252ABDACC10482D291E55885BDE58EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7E2F8DA1-3010-48E5-95B9-9A1C1379941D}"/>
+  <xr:revisionPtr revIDLastSave="127" documentId="11_F25DC773A252ABDACC10482D291E55885BDE58EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C8CE1B84-09EF-492B-A661-803C112EA36E}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Astronauta" sheetId="1" r:id="rId1"/>
@@ -255,6 +255,10 @@
 </file>
 
 <file path=xl/persons/person0.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/persons/person1.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
@@ -917,8 +921,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76A2E164-804C-4A26-8EDD-0B1C83E35910}">
   <dimension ref="A1:L29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L28" sqref="L28:L29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -984,7 +988,7 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <f t="shared" ref="L3:L28" si="0">IFERROR(SUM(B3:K3)/COUNT(B3:K3)*100, 0)</f>
+        <f t="shared" ref="L3:L29" si="0">IFERROR(SUM(B3:K3)/COUNT(B3:K3)*100, 0)</f>
         <v>0</v>
       </c>
     </row>
@@ -1294,6 +1298,10 @@
       </c>
       <c r="B29">
         <v>1</v>
+      </c>
+      <c r="L29">
+        <f t="shared" si="0"/>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -1697,8 +1705,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D45A07B9-F651-41BC-A481-395AA628394B}">
   <dimension ref="A1:P29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="P29" sqref="P29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/actitud.xlsx
+++ b/actitud.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ef4cc4ddfd4d7cd1/Github/3C/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="127" documentId="11_F25DC773A252ABDACC10482D291E55885BDE58EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C8CE1B84-09EF-492B-A661-803C112EA36E}"/>
+  <xr:revisionPtr revIDLastSave="132" documentId="11_F25DC773A252ABDACC10482D291E55885BDE58EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8BF184B5-E070-43C6-909C-06915D4B8FE7}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Astronauta" sheetId="1" r:id="rId1"/>
@@ -18,10 +18,20 @@
     <sheet name="Mago" sheetId="3" r:id="rId3"/>
     <sheet name="Ninja" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -531,13 +541,13 @@
       <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="20.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.36328125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -575,7 +585,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -587,7 +597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -599,7 +609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -611,7 +621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -623,7 +633,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -635,7 +645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -647,7 +657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -659,7 +669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -671,7 +681,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -683,7 +693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -695,7 +705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -707,7 +717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>23</v>
       </c>
@@ -719,7 +729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>24</v>
       </c>
@@ -731,7 +741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>25</v>
       </c>
@@ -743,7 +753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>26</v>
       </c>
@@ -755,7 +765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>27</v>
       </c>
@@ -767,7 +777,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>28</v>
       </c>
@@ -779,7 +789,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>29</v>
       </c>
@@ -791,7 +801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>30</v>
       </c>
@@ -803,7 +813,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>31</v>
       </c>
@@ -815,7 +825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>32</v>
       </c>
@@ -827,7 +837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>33</v>
       </c>
@@ -839,7 +849,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>34</v>
       </c>
@@ -851,7 +861,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>35</v>
       </c>
@@ -863,7 +873,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>36</v>
       </c>
@@ -875,7 +885,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>37</v>
       </c>
@@ -887,7 +897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>38</v>
       </c>
@@ -899,7 +909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>53</v>
       </c>
@@ -921,16 +931,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76A2E164-804C-4A26-8EDD-0B1C83E35910}">
   <dimension ref="A1:L29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L28" sqref="L28:L29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -968,7 +978,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -980,7 +990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -992,7 +1002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -1004,7 +1014,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -1016,7 +1026,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -1028,7 +1038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -1040,7 +1050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -1052,7 +1062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -1064,7 +1074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -1076,7 +1086,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -1088,7 +1098,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -1100,7 +1110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>23</v>
       </c>
@@ -1112,7 +1122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>24</v>
       </c>
@@ -1124,7 +1134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>25</v>
       </c>
@@ -1136,7 +1146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>26</v>
       </c>
@@ -1148,7 +1158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>27</v>
       </c>
@@ -1160,7 +1170,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>28</v>
       </c>
@@ -1172,7 +1182,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>29</v>
       </c>
@@ -1184,7 +1194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>30</v>
       </c>
@@ -1196,7 +1206,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>31</v>
       </c>
@@ -1208,7 +1218,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>32</v>
       </c>
@@ -1220,7 +1230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>33</v>
       </c>
@@ -1232,7 +1242,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>34</v>
       </c>
@@ -1244,7 +1254,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>35</v>
       </c>
@@ -1256,7 +1266,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>36</v>
       </c>
@@ -1268,7 +1278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>37</v>
       </c>
@@ -1280,7 +1290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>38</v>
       </c>
@@ -1292,7 +1302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>53</v>
       </c>
@@ -1317,12 +1327,12 @@
       <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1360,7 +1370,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -1372,7 +1382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -1384,7 +1394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -1396,7 +1406,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -1408,7 +1418,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -1420,7 +1430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -1432,7 +1442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -1444,7 +1454,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -1456,7 +1466,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -1468,7 +1478,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -1480,7 +1490,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -1492,7 +1502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>23</v>
       </c>
@@ -1504,7 +1514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>24</v>
       </c>
@@ -1516,7 +1526,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>25</v>
       </c>
@@ -1528,7 +1538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>26</v>
       </c>
@@ -1540,7 +1550,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>27</v>
       </c>
@@ -1552,7 +1562,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>28</v>
       </c>
@@ -1564,7 +1574,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>29</v>
       </c>
@@ -1576,7 +1586,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>30</v>
       </c>
@@ -1588,7 +1598,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>31</v>
       </c>
@@ -1600,7 +1610,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>32</v>
       </c>
@@ -1612,7 +1622,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>33</v>
       </c>
@@ -1624,7 +1634,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>34</v>
       </c>
@@ -1636,7 +1646,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>35</v>
       </c>
@@ -1648,7 +1658,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>36</v>
       </c>
@@ -1660,7 +1670,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>37</v>
       </c>
@@ -1672,7 +1682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>38</v>
       </c>
@@ -1684,7 +1694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>53</v>
       </c>
@@ -1705,16 +1715,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D45A07B9-F651-41BC-A481-395AA628394B}">
   <dimension ref="A1:P29"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P29" sqref="P29"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1764,7 +1774,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -1774,12 +1784,15 @@
       <c r="C2">
         <v>0</v>
       </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
       <c r="P2">
         <f>IFERROR(SUM(B2:O2)/COUNT(B2:O2)*100, 0)</f>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+        <v>66.666666666666657</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -1789,12 +1802,15 @@
       <c r="C3">
         <v>1</v>
       </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
       <c r="P3">
         <f t="shared" ref="P3:P29" si="0">IFERROR(SUM(B3:O3)/COUNT(B3:O3)*100, 0)</f>
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -1804,12 +1820,15 @@
       <c r="C4">
         <v>1</v>
       </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
       <c r="P4">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -1819,12 +1838,15 @@
       <c r="C5">
         <v>1</v>
       </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
       <c r="P5">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -1834,12 +1856,15 @@
       <c r="C6">
         <v>1</v>
       </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
       <c r="P6">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -1849,12 +1874,15 @@
       <c r="C7">
         <v>1</v>
       </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
       <c r="P7">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -1864,12 +1892,15 @@
       <c r="C8">
         <v>1</v>
       </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
       <c r="P8">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -1879,12 +1910,15 @@
       <c r="C9">
         <v>1</v>
       </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
       <c r="P9">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -1894,12 +1928,15 @@
       <c r="C10">
         <v>1</v>
       </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
       <c r="P10">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -1909,12 +1946,15 @@
       <c r="C11">
         <v>1</v>
       </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
       <c r="P11">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -1924,12 +1964,15 @@
       <c r="C12">
         <v>1</v>
       </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
       <c r="P12">
         <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+        <v>66.666666666666657</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>23</v>
       </c>
@@ -1939,12 +1982,15 @@
       <c r="C13">
         <v>0</v>
       </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
       <c r="P13">
         <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+        <v>66.666666666666657</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>24</v>
       </c>
@@ -1954,12 +2000,15 @@
       <c r="C14">
         <v>1</v>
       </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
       <c r="P14">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>25</v>
       </c>
@@ -1969,12 +2018,15 @@
       <c r="C15">
         <v>1</v>
       </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
       <c r="P15">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>26</v>
       </c>
@@ -1984,12 +2036,15 @@
       <c r="C16">
         <v>0</v>
       </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
       <c r="P16">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+        <v>33.333333333333329</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>27</v>
       </c>
@@ -1999,12 +2054,15 @@
       <c r="C17">
         <v>1</v>
       </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
       <c r="P17">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>28</v>
       </c>
@@ -2014,12 +2072,15 @@
       <c r="C18">
         <v>1</v>
       </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
       <c r="P18">
         <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+        <v>66.666666666666657</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>29</v>
       </c>
@@ -2029,12 +2090,15 @@
       <c r="C19">
         <v>1</v>
       </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
       <c r="P19">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>30</v>
       </c>
@@ -2044,12 +2108,15 @@
       <c r="C20">
         <v>1</v>
       </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
       <c r="P20">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>31</v>
       </c>
@@ -2059,12 +2126,15 @@
       <c r="C21">
         <v>1</v>
       </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
       <c r="P21">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>32</v>
       </c>
@@ -2074,12 +2144,15 @@
       <c r="C22">
         <v>0</v>
       </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
       <c r="P22">
         <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
+        <v>66.666666666666657</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>33</v>
       </c>
@@ -2089,12 +2162,15 @@
       <c r="C23">
         <v>1</v>
       </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
       <c r="P23">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>34</v>
       </c>
@@ -2104,12 +2180,15 @@
       <c r="C24">
         <v>1</v>
       </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
       <c r="P24">
         <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
+        <v>66.666666666666657</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>35</v>
       </c>
@@ -2119,12 +2198,15 @@
       <c r="C25">
         <v>1</v>
       </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
       <c r="P25">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>36</v>
       </c>
@@ -2134,12 +2216,15 @@
       <c r="C26">
         <v>0</v>
       </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
       <c r="P26">
         <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
+        <v>66.666666666666657</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>37</v>
       </c>
@@ -2149,12 +2234,15 @@
       <c r="C27">
         <v>0</v>
       </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
       <c r="P27">
         <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
+        <v>66.666666666666657</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>38</v>
       </c>
@@ -2164,12 +2252,15 @@
       <c r="C28">
         <v>0</v>
       </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
       <c r="P28">
         <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
+        <v>33.333333333333329</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>53</v>
       </c>
@@ -2177,6 +2268,9 @@
         <v>1</v>
       </c>
       <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29">
         <v>1</v>
       </c>
       <c r="P29">

--- a/actitud.xlsx
+++ b/actitud.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ef4cc4ddfd4d7cd1/Github/3C/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="132" documentId="11_F25DC773A252ABDACC10482D291E55885BDE58EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8BF184B5-E070-43C6-909C-06915D4B8FE7}"/>
+  <xr:revisionPtr revIDLastSave="133" documentId="11_F25DC773A252ABDACC10482D291E55885BDE58EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FA840FB3-6DAB-4D79-9098-CD9130C59459}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Astronauta" sheetId="1" r:id="rId1"/>
@@ -18,20 +18,10 @@
     <sheet name="Mago" sheetId="3" r:id="rId3"/>
     <sheet name="Ninja" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -241,8 +231,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -269,6 +260,10 @@
 </file>
 
 <file path=xl/persons/person1.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/persons/person2.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
@@ -538,16 +533,16 @@
   <dimension ref="A1:L29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.36328125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.6328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -585,103 +580,127 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>12</v>
       </c>
       <c r="B2">
         <v>0</v>
       </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
       <c r="L2">
         <f>IFERROR(SUM(B2:K2)/COUNT(B2:K2)*100, 0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>13</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
       <c r="L3">
         <f t="shared" ref="L3:L29" si="0">IFERROR(SUM(B3:K3)/COUNT(B3:K3)*100, 0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>14</v>
       </c>
       <c r="B4">
         <v>0</v>
       </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
       <c r="L4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>15</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
       <c r="L5">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>16</v>
       </c>
       <c r="B6">
         <v>0</v>
       </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
       <c r="L6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>17</v>
       </c>
       <c r="B7">
         <v>0</v>
       </c>
+      <c r="C7">
+        <v>0.5</v>
+      </c>
       <c r="L7">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>18</v>
       </c>
       <c r="B8">
         <v>0</v>
       </c>
+      <c r="C8">
+        <v>0.4</v>
+      </c>
       <c r="L8">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>19</v>
       </c>
       <c r="B9">
         <v>1</v>
       </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
       <c r="L9">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -693,227 +712,284 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>21</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
       </c>
       <c r="L11">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>22</v>
       </c>
       <c r="B12">
         <v>0</v>
       </c>
+      <c r="C12">
+        <v>0.5</v>
+      </c>
       <c r="L12">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>23</v>
       </c>
       <c r="B13">
         <v>0</v>
       </c>
+      <c r="C13">
+        <v>0.5</v>
+      </c>
       <c r="L13">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>24</v>
       </c>
       <c r="B14">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
       </c>
       <c r="L14">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>25</v>
       </c>
       <c r="B15">
         <v>0</v>
       </c>
+      <c r="C15">
+        <v>0.5</v>
+      </c>
       <c r="L15">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>26</v>
       </c>
       <c r="B16">
         <v>0</v>
       </c>
+      <c r="C16">
+        <v>0.5</v>
+      </c>
       <c r="L16">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>27</v>
       </c>
       <c r="B17">
         <v>1</v>
       </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
       <c r="L17">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>28</v>
       </c>
       <c r="B18">
         <v>1</v>
       </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
       <c r="L18">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>29</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
+      <c r="C19">
+        <v>0.5</v>
+      </c>
       <c r="L19">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>30</v>
       </c>
       <c r="B20">
         <v>1</v>
       </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
       <c r="L20">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>31</v>
       </c>
       <c r="B21">
         <v>0</v>
       </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
       <c r="L21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>32</v>
       </c>
       <c r="B22">
         <v>0</v>
       </c>
+      <c r="C22">
+        <v>0.8</v>
+      </c>
       <c r="L22">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>33</v>
       </c>
       <c r="B23">
         <v>1</v>
       </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
       <c r="L23">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>34</v>
       </c>
       <c r="B24">
         <v>1</v>
       </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
       <c r="L24">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>35</v>
       </c>
       <c r="B25">
         <v>1</v>
       </c>
+      <c r="C25">
+        <v>0.4</v>
+      </c>
       <c r="L25">
         <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>36</v>
       </c>
       <c r="B26">
         <v>1</v>
       </c>
+      <c r="C26">
+        <v>0.5</v>
+      </c>
       <c r="L26">
         <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>37</v>
       </c>
       <c r="B27">
         <v>0</v>
       </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
       <c r="L27">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>38</v>
       </c>
       <c r="B28">
         <v>0</v>
       </c>
+      <c r="C28">
+        <v>0.5</v>
+      </c>
       <c r="L28">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>53</v>
       </c>
       <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29">
         <v>1</v>
       </c>
       <c r="L29">
@@ -932,15 +1008,15 @@
   <dimension ref="A1:L29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.36328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -978,31 +1054,37 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>12</v>
       </c>
       <c r="B2">
         <v>0</v>
       </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
       <c r="L2">
         <f>IFERROR(SUM(B2:K2)/COUNT(B2:K2)*100, 0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>13</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
       <c r="L3">
         <f t="shared" ref="L3:L29" si="0">IFERROR(SUM(B3:K3)/COUNT(B3:K3)*100, 0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -1014,19 +1096,22 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>15</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
       <c r="L5">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -1038,43 +1123,52 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>17</v>
       </c>
       <c r="B7">
         <v>0</v>
       </c>
+      <c r="C7">
+        <v>0.7</v>
+      </c>
       <c r="L7">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>18</v>
       </c>
       <c r="B8">
         <v>0</v>
       </c>
+      <c r="C8">
+        <v>0.8</v>
+      </c>
       <c r="L8">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>19</v>
       </c>
       <c r="B9">
         <v>0</v>
       </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
       <c r="L9">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -1086,127 +1180,157 @@
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>21</v>
       </c>
       <c r="B11">
         <v>1</v>
       </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
       <c r="L11">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>22</v>
       </c>
       <c r="B12">
         <v>0</v>
       </c>
+      <c r="C12">
+        <v>0.8</v>
+      </c>
       <c r="L12">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>23</v>
       </c>
       <c r="B13">
         <v>0</v>
       </c>
+      <c r="C13">
+        <v>0.8</v>
+      </c>
       <c r="L13">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>24</v>
       </c>
       <c r="B14">
         <v>0</v>
       </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
       <c r="L14">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>25</v>
       </c>
       <c r="B15">
         <v>0</v>
       </c>
+      <c r="C15">
+        <v>0.25</v>
+      </c>
       <c r="L15">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>26</v>
       </c>
       <c r="B16">
-        <v>0</v>
+        <v>0.5</v>
+      </c>
+      <c r="C16">
+        <v>0.8</v>
       </c>
       <c r="L16">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>27</v>
       </c>
       <c r="B17">
         <v>1</v>
       </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
       <c r="L17">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>28</v>
       </c>
       <c r="B18">
         <v>1</v>
       </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
       <c r="L18">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>29</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
+      <c r="C19">
+        <v>0.4</v>
+      </c>
       <c r="L19">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>30</v>
       </c>
       <c r="B20">
         <v>1</v>
       </c>
+      <c r="C20">
+        <v>0.9</v>
+      </c>
       <c r="L20">
         <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>31</v>
       </c>
@@ -1218,100 +1342,124 @@
         <v>100</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>32</v>
       </c>
       <c r="B22">
         <v>0</v>
       </c>
+      <c r="C22">
+        <v>0.8</v>
+      </c>
       <c r="L22">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>33</v>
       </c>
       <c r="B23">
         <v>1</v>
       </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
       <c r="L23">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>34</v>
       </c>
       <c r="B24">
         <v>1</v>
       </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
       <c r="L24">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>35</v>
       </c>
       <c r="B25">
         <v>1</v>
       </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
       <c r="L25">
         <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>36</v>
       </c>
       <c r="B26">
         <v>0</v>
       </c>
+      <c r="C26">
+        <v>0.6</v>
+      </c>
       <c r="L26">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>37</v>
       </c>
       <c r="B27">
         <v>0</v>
       </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
       <c r="L27">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>38</v>
       </c>
       <c r="B28">
         <v>0</v>
       </c>
+      <c r="C28">
+        <v>0.6</v>
+      </c>
       <c r="L28">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>53</v>
       </c>
       <c r="B29">
         <v>1</v>
       </c>
+      <c r="C29">
+        <v>0.8</v>
+      </c>
       <c r="L29">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -1324,15 +1472,15 @@
   <dimension ref="A1:L29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.36328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1370,31 +1518,37 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>12</v>
       </c>
       <c r="B2">
         <v>0</v>
       </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
       <c r="L2">
         <f>IFERROR(SUM(B2:K2)/COUNT(B2:K2)*100, 0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>13</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
       <c r="L3">
         <f t="shared" ref="L3:L29" si="0">IFERROR(SUM(B3:K3)/COUNT(B3:K3)*100, 0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -1406,19 +1560,22 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>15</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
       <c r="L5">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -1430,43 +1587,52 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>17</v>
       </c>
       <c r="B7">
         <v>0</v>
       </c>
+      <c r="C7">
+        <v>0.5</v>
+      </c>
       <c r="L7">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>18</v>
       </c>
       <c r="B8">
         <v>1</v>
       </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
       <c r="L8">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>19</v>
       </c>
       <c r="B9">
         <v>1</v>
       </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
       <c r="L9">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -1478,127 +1644,157 @@
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>21</v>
       </c>
       <c r="B11">
         <v>1</v>
       </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
       <c r="L11">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>22</v>
       </c>
       <c r="B12">
         <v>0</v>
       </c>
+      <c r="C12">
+        <v>0.4</v>
+      </c>
       <c r="L12">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>23</v>
       </c>
       <c r="B13">
         <v>0</v>
       </c>
+      <c r="C13">
+        <v>0.4</v>
+      </c>
       <c r="L13">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>24</v>
       </c>
       <c r="B14">
         <v>1</v>
       </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
       <c r="L14">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>25</v>
       </c>
       <c r="B15">
         <v>0</v>
       </c>
+      <c r="C15">
+        <v>0.2</v>
+      </c>
       <c r="L15">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>26</v>
       </c>
       <c r="B16">
         <v>1</v>
       </c>
+      <c r="C16">
+        <v>0.6</v>
+      </c>
       <c r="L16">
         <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>27</v>
       </c>
       <c r="B17">
         <v>1</v>
       </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
       <c r="L17">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>28</v>
       </c>
       <c r="B18">
         <v>1</v>
       </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
       <c r="L18">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>29</v>
       </c>
       <c r="B19">
         <v>1</v>
       </c>
+      <c r="C19">
+        <v>0.6</v>
+      </c>
       <c r="L19">
         <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>30</v>
       </c>
       <c r="B20">
         <v>1</v>
       </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
       <c r="L20">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>31</v>
       </c>
@@ -1610,95 +1806,119 @@
         <v>100</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>32</v>
       </c>
       <c r="B22">
         <v>1</v>
       </c>
+      <c r="C22">
+        <v>0.7</v>
+      </c>
       <c r="L22">
         <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>33</v>
       </c>
       <c r="B23">
         <v>1</v>
       </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
       <c r="L23">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>34</v>
       </c>
       <c r="B24">
         <v>1</v>
       </c>
+      <c r="C24">
+        <v>0.7</v>
+      </c>
       <c r="L24">
         <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>35</v>
       </c>
       <c r="B25">
         <v>1</v>
       </c>
+      <c r="C25">
+        <v>0.6</v>
+      </c>
       <c r="L25">
         <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>36</v>
       </c>
       <c r="B26">
         <v>1</v>
       </c>
+      <c r="C26">
+        <v>0.6</v>
+      </c>
       <c r="L26">
         <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>37</v>
       </c>
       <c r="B27">
         <v>0</v>
       </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
       <c r="L27">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>38</v>
       </c>
       <c r="B28">
         <v>0</v>
       </c>
+      <c r="C28">
+        <v>0.6</v>
+      </c>
       <c r="L28">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>53</v>
       </c>
       <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29">
         <v>1</v>
       </c>
       <c r="L29">
@@ -1713,18 +1933,18 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D45A07B9-F651-41BC-A481-395AA628394B}">
-  <dimension ref="A1:P29"/>
+  <dimension ref="A1:P47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.36328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1774,7 +1994,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -1787,12 +2007,18 @@
       <c r="D2">
         <v>1</v>
       </c>
+      <c r="E2">
+        <v>0.2</v>
+      </c>
+      <c r="F2">
+        <v>0.2</v>
+      </c>
       <c r="P2">
         <f>IFERROR(SUM(B2:O2)/COUNT(B2:O2)*100, 0)</f>
-        <v>66.666666666666657</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
+        <v>48.000000000000007</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -1805,12 +2031,18 @@
       <c r="D3">
         <v>1</v>
       </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
       <c r="P3">
-        <f t="shared" ref="P3:P29" si="0">IFERROR(SUM(B3:O3)/COUNT(B3:O3)*100, 0)</f>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
+        <f>IFERROR(SUM(B3:O3)/COUNT(B3:O3)*100, 0)</f>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -1824,11 +2056,11 @@
         <v>1</v>
       </c>
       <c r="P4">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
+        <f>IFERROR(SUM(B4:O4)/COUNT(B4:O4)*100, 0)</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -1841,12 +2073,18 @@
       <c r="D5">
         <v>1</v>
       </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
       <c r="P5">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
+        <f>IFERROR(SUM(B5:O5)/COUNT(B5:O5)*100, 0)</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -1860,11 +2098,11 @@
         <v>1</v>
       </c>
       <c r="P6">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
+        <f>IFERROR(SUM(B6:O6)/COUNT(B6:O6)*100, 0)</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -1877,12 +2115,18 @@
       <c r="D7">
         <v>1</v>
       </c>
+      <c r="E7">
+        <v>0.25</v>
+      </c>
+      <c r="F7">
+        <v>0.25</v>
+      </c>
       <c r="P7">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
+        <f>IFERROR(SUM(B7:O7)/COUNT(B7:O7)*100, 0)</f>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -1895,12 +2139,18 @@
       <c r="D8">
         <v>1</v>
       </c>
+      <c r="E8">
+        <v>0.5</v>
+      </c>
+      <c r="F8">
+        <v>0.5</v>
+      </c>
       <c r="P8">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
+        <f>IFERROR(SUM(B8:O8)/COUNT(B8:O8)*100, 0)</f>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -1913,12 +2163,18 @@
       <c r="D9">
         <v>1</v>
       </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
       <c r="P9">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
+        <f>IFERROR(SUM(B9:O9)/COUNT(B9:O9)*100, 0)</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -1932,11 +2188,11 @@
         <v>1</v>
       </c>
       <c r="P10">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
+        <f>IFERROR(SUM(B10:O10)/COUNT(B10:O10)*100, 0)</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -1949,12 +2205,18 @@
       <c r="D11">
         <v>1</v>
       </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
       <c r="P11">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
+        <f>IFERROR(SUM(B11:O11)/COUNT(B11:O11)*100, 0)</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -1967,12 +2229,18 @@
       <c r="D12">
         <v>1</v>
       </c>
+      <c r="E12">
+        <v>0.4</v>
+      </c>
+      <c r="F12">
+        <v>0.4</v>
+      </c>
       <c r="P12">
-        <f t="shared" si="0"/>
-        <v>66.666666666666657</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
+        <f>IFERROR(SUM(B12:O12)/COUNT(B12:O12)*100, 0)</f>
+        <v>55.999999999999993</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>23</v>
       </c>
@@ -1985,12 +2253,18 @@
       <c r="D13">
         <v>1</v>
       </c>
+      <c r="E13">
+        <v>0.5</v>
+      </c>
+      <c r="F13">
+        <v>0.5</v>
+      </c>
       <c r="P13">
-        <f t="shared" si="0"/>
-        <v>66.666666666666657</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
+        <f>IFERROR(SUM(B13:O13)/COUNT(B13:O13)*100, 0)</f>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>24</v>
       </c>
@@ -2003,12 +2277,18 @@
       <c r="D14">
         <v>1</v>
       </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
       <c r="P14">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
+        <f>IFERROR(SUM(B14:O14)/COUNT(B14:O14)*100, 0)</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>25</v>
       </c>
@@ -2021,12 +2301,18 @@
       <c r="D15">
         <v>1</v>
       </c>
+      <c r="E15">
+        <v>0.15</v>
+      </c>
+      <c r="F15">
+        <v>0.15</v>
+      </c>
       <c r="P15">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
+        <f>IFERROR(SUM(B15:O15)/COUNT(B15:O15)*100, 0)</f>
+        <v>65.999999999999986</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>26</v>
       </c>
@@ -2039,12 +2325,18 @@
       <c r="D16">
         <v>1</v>
       </c>
+      <c r="E16">
+        <v>0.3</v>
+      </c>
+      <c r="F16">
+        <v>0.3</v>
+      </c>
       <c r="P16">
-        <f t="shared" si="0"/>
-        <v>33.333333333333329</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.35">
+        <f>IFERROR(SUM(B16:O16)/COUNT(B16:O16)*100, 0)</f>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>27</v>
       </c>
@@ -2057,12 +2349,18 @@
       <c r="D17">
         <v>1</v>
       </c>
+      <c r="E17">
+        <v>0.9</v>
+      </c>
+      <c r="F17">
+        <v>0.9</v>
+      </c>
       <c r="P17">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.35">
+        <f>IFERROR(SUM(B17:O17)/COUNT(B17:O17)*100, 0)</f>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>28</v>
       </c>
@@ -2075,12 +2373,18 @@
       <c r="D18">
         <v>1</v>
       </c>
+      <c r="E18">
+        <v>0.65</v>
+      </c>
+      <c r="F18">
+        <v>0.65</v>
+      </c>
       <c r="P18">
-        <f t="shared" si="0"/>
-        <v>66.666666666666657</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.35">
+        <f>IFERROR(SUM(B18:O18)/COUNT(B18:O18)*100, 0)</f>
+        <v>65.999999999999986</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>29</v>
       </c>
@@ -2093,12 +2397,18 @@
       <c r="D19">
         <v>1</v>
       </c>
+      <c r="E19">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="F19">
+        <v>0.14000000000000001</v>
+      </c>
       <c r="P19">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.35">
+        <f>IFERROR(SUM(B19:O19)/COUNT(B19:O19)*100, 0)</f>
+        <v>65.600000000000009</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>30</v>
       </c>
@@ -2111,12 +2421,18 @@
       <c r="D20">
         <v>1</v>
       </c>
+      <c r="E20">
+        <v>0.25</v>
+      </c>
+      <c r="F20">
+        <v>0.25</v>
+      </c>
       <c r="P20">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.35">
+        <f>IFERROR(SUM(B20:O20)/COUNT(B20:O20)*100, 0)</f>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>31</v>
       </c>
@@ -2130,11 +2446,11 @@
         <v>1</v>
       </c>
       <c r="P21">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.35">
+        <f>IFERROR(SUM(B21:O21)/COUNT(B21:O21)*100, 0)</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>32</v>
       </c>
@@ -2147,12 +2463,18 @@
       <c r="D22">
         <v>1</v>
       </c>
+      <c r="E22">
+        <v>0.15</v>
+      </c>
+      <c r="F22">
+        <v>0.15</v>
+      </c>
       <c r="P22">
-        <f t="shared" si="0"/>
-        <v>66.666666666666657</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.35">
+        <f>IFERROR(SUM(B22:O22)/COUNT(B22:O22)*100, 0)</f>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>33</v>
       </c>
@@ -2165,12 +2487,18 @@
       <c r="D23">
         <v>1</v>
       </c>
+      <c r="E23">
+        <v>0.77500000000000002</v>
+      </c>
+      <c r="F23">
+        <v>0.77500000000000002</v>
+      </c>
       <c r="P23">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.35">
+        <f>IFERROR(SUM(B23:O23)/COUNT(B23:O23)*100, 0)</f>
+        <v>90.999999999999986</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>34</v>
       </c>
@@ -2183,12 +2511,18 @@
       <c r="D24">
         <v>1</v>
       </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
       <c r="P24">
-        <f t="shared" si="0"/>
-        <v>66.666666666666657</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.35">
+        <f>IFERROR(SUM(B24:O24)/COUNT(B24:O24)*100, 0)</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>35</v>
       </c>
@@ -2201,12 +2535,18 @@
       <c r="D25">
         <v>1</v>
       </c>
+      <c r="E25">
+        <v>0.15</v>
+      </c>
+      <c r="F25">
+        <v>0.15</v>
+      </c>
       <c r="P25">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.35">
+        <f>IFERROR(SUM(B25:O25)/COUNT(B25:O25)*100, 0)</f>
+        <v>65.999999999999986</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>36</v>
       </c>
@@ -2219,12 +2559,18 @@
       <c r="D26">
         <v>1</v>
       </c>
+      <c r="E26">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="F26">
+        <v>0.55000000000000004</v>
+      </c>
       <c r="P26">
-        <f t="shared" si="0"/>
-        <v>66.666666666666657</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.35">
+        <f>IFERROR(SUM(B26:O26)/COUNT(B26:O26)*100, 0)</f>
+        <v>61.999999999999986</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>37</v>
       </c>
@@ -2237,12 +2583,18 @@
       <c r="D27">
         <v>1</v>
       </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
       <c r="P27">
-        <f t="shared" si="0"/>
-        <v>66.666666666666657</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.35">
+        <f>IFERROR(SUM(B27:O27)/COUNT(B27:O27)*100, 0)</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>38</v>
       </c>
@@ -2255,12 +2607,18 @@
       <c r="D28">
         <v>0</v>
       </c>
+      <c r="E28">
+        <v>0.6</v>
+      </c>
+      <c r="F28">
+        <v>0.6</v>
+      </c>
       <c r="P28">
-        <f t="shared" si="0"/>
-        <v>33.333333333333329</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.35">
+        <f>IFERROR(SUM(B28:O28)/COUNT(B28:O28)*100, 0)</f>
+        <v>44.000000000000007</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>53</v>
       </c>
@@ -2273,10 +2631,19 @@
       <c r="D29">
         <v>1</v>
       </c>
+      <c r="E29">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="F29">
+        <v>0.55000000000000004</v>
+      </c>
       <c r="P29">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
+        <f>IFERROR(SUM(B29:O29)/COUNT(B29:O29)*100, 0)</f>
+        <v>82</v>
+      </c>
+    </row>
+    <row r="47" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D47" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/actitud.xlsx
+++ b/actitud.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27002"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="133" documentId="11_F25DC773A252ABDACC10482D291E55885BDE58EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FA840FB3-6DAB-4D79-9098-CD9130C59459}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Astronauta" sheetId="1" r:id="rId1"/>
@@ -18,10 +18,21 @@
     <sheet name="Mago" sheetId="3" r:id="rId3"/>
     <sheet name="Ninja" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -147,6 +158,9 @@
     <t>Lino Solla</t>
   </si>
   <si>
+    <t xml:space="preserve">Xulia Teixeira </t>
+  </si>
+  <si>
     <t>T1</t>
   </si>
   <si>
@@ -187,16 +201,13 @@
   </si>
   <si>
     <t>T14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Xulia Teixeira </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -231,9 +242,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -249,22 +259,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
-<file path=xl/persons/person0.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
-<file path=xl/persons/person1.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
-<file path=xl/persons/person2.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -536,13 +530,13 @@
       <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="20.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -580,7 +574,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -595,7 +589,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -610,7 +604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -625,7 +619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -640,7 +634,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -655,7 +649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -670,7 +664,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -685,7 +679,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -700,7 +694,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -712,7 +706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -727,7 +721,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -742,7 +736,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12">
       <c r="A13" t="s">
         <v>23</v>
       </c>
@@ -757,7 +751,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12">
       <c r="A14" t="s">
         <v>24</v>
       </c>
@@ -772,7 +766,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12">
       <c r="A15" t="s">
         <v>25</v>
       </c>
@@ -787,7 +781,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12">
       <c r="A16" t="s">
         <v>26</v>
       </c>
@@ -802,7 +796,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12">
       <c r="A17" t="s">
         <v>27</v>
       </c>
@@ -817,7 +811,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12">
       <c r="A18" t="s">
         <v>28</v>
       </c>
@@ -832,7 +826,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12">
       <c r="A19" t="s">
         <v>29</v>
       </c>
@@ -847,7 +841,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12">
       <c r="A20" t="s">
         <v>30</v>
       </c>
@@ -862,7 +856,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12">
       <c r="A21" t="s">
         <v>31</v>
       </c>
@@ -877,7 +871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12">
       <c r="A22" t="s">
         <v>32</v>
       </c>
@@ -892,7 +886,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12">
       <c r="A23" t="s">
         <v>33</v>
       </c>
@@ -907,7 +901,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12">
       <c r="A24" t="s">
         <v>34</v>
       </c>
@@ -922,7 +916,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12">
       <c r="A25" t="s">
         <v>35</v>
       </c>
@@ -937,7 +931,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12">
       <c r="A26" t="s">
         <v>36</v>
       </c>
@@ -952,7 +946,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12">
       <c r="A27" t="s">
         <v>37</v>
       </c>
@@ -967,7 +961,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12">
       <c r="A28" t="s">
         <v>38</v>
       </c>
@@ -982,9 +976,9 @@
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12">
       <c r="A29" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="B29">
         <v>1</v>
@@ -1011,12 +1005,12 @@
       <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1054,7 +1048,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -1069,7 +1063,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -1084,7 +1078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -1096,7 +1090,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -1111,7 +1105,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -1123,7 +1117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -1138,7 +1132,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -1153,7 +1147,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -1168,7 +1162,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -1180,7 +1174,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -1195,7 +1189,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -1210,7 +1204,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12">
       <c r="A13" t="s">
         <v>23</v>
       </c>
@@ -1225,7 +1219,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12">
       <c r="A14" t="s">
         <v>24</v>
       </c>
@@ -1240,7 +1234,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12">
       <c r="A15" t="s">
         <v>25</v>
       </c>
@@ -1255,7 +1249,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12">
       <c r="A16" t="s">
         <v>26</v>
       </c>
@@ -1270,7 +1264,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12">
       <c r="A17" t="s">
         <v>27</v>
       </c>
@@ -1285,7 +1279,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12">
       <c r="A18" t="s">
         <v>28</v>
       </c>
@@ -1300,7 +1294,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12">
       <c r="A19" t="s">
         <v>29</v>
       </c>
@@ -1315,7 +1309,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12">
       <c r="A20" t="s">
         <v>30</v>
       </c>
@@ -1330,7 +1324,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12">
       <c r="A21" t="s">
         <v>31</v>
       </c>
@@ -1342,7 +1336,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12">
       <c r="A22" t="s">
         <v>32</v>
       </c>
@@ -1357,7 +1351,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12">
       <c r="A23" t="s">
         <v>33</v>
       </c>
@@ -1372,7 +1366,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12">
       <c r="A24" t="s">
         <v>34</v>
       </c>
@@ -1387,7 +1381,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12">
       <c r="A25" t="s">
         <v>35</v>
       </c>
@@ -1402,7 +1396,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12">
       <c r="A26" t="s">
         <v>36</v>
       </c>
@@ -1417,7 +1411,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12">
       <c r="A27" t="s">
         <v>37</v>
       </c>
@@ -1432,7 +1426,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12">
       <c r="A28" t="s">
         <v>38</v>
       </c>
@@ -1447,9 +1441,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12">
       <c r="A29" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="B29">
         <v>1</v>
@@ -1475,12 +1469,12 @@
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1518,7 +1512,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -1533,7 +1527,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -1548,7 +1542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -1560,7 +1554,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -1575,7 +1569,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -1587,7 +1581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -1602,7 +1596,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -1617,7 +1611,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -1632,7 +1626,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -1644,7 +1638,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -1659,7 +1653,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -1674,7 +1668,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12">
       <c r="A13" t="s">
         <v>23</v>
       </c>
@@ -1689,7 +1683,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12">
       <c r="A14" t="s">
         <v>24</v>
       </c>
@@ -1704,7 +1698,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12">
       <c r="A15" t="s">
         <v>25</v>
       </c>
@@ -1719,7 +1713,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12">
       <c r="A16" t="s">
         <v>26</v>
       </c>
@@ -1734,7 +1728,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12">
       <c r="A17" t="s">
         <v>27</v>
       </c>
@@ -1749,7 +1743,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12">
       <c r="A18" t="s">
         <v>28</v>
       </c>
@@ -1764,7 +1758,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12">
       <c r="A19" t="s">
         <v>29</v>
       </c>
@@ -1779,7 +1773,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12">
       <c r="A20" t="s">
         <v>30</v>
       </c>
@@ -1794,7 +1788,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12">
       <c r="A21" t="s">
         <v>31</v>
       </c>
@@ -1806,7 +1800,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12">
       <c r="A22" t="s">
         <v>32</v>
       </c>
@@ -1821,7 +1815,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12">
       <c r="A23" t="s">
         <v>33</v>
       </c>
@@ -1836,7 +1830,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12">
       <c r="A24" t="s">
         <v>34</v>
       </c>
@@ -1851,7 +1845,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12">
       <c r="A25" t="s">
         <v>35</v>
       </c>
@@ -1866,7 +1860,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12">
       <c r="A26" t="s">
         <v>36</v>
       </c>
@@ -1881,7 +1875,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12">
       <c r="A27" t="s">
         <v>37</v>
       </c>
@@ -1896,7 +1890,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12">
       <c r="A28" t="s">
         <v>38</v>
       </c>
@@ -1911,9 +1905,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12">
       <c r="A29" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="B29">
         <v>1</v>
@@ -1933,68 +1927,68 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D45A07B9-F651-41BC-A481-395AA628394B}">
-  <dimension ref="A1:P47"/>
+  <dimension ref="A1:P29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="N1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -2018,7 +2012,7 @@
         <v>48.000000000000007</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -2042,7 +2036,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -2060,7 +2054,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -2084,7 +2078,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -2102,7 +2096,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -2126,7 +2120,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -2150,7 +2144,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -2174,7 +2168,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -2192,7 +2186,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -2216,7 +2210,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -2240,7 +2234,7 @@
         <v>55.999999999999993</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16">
       <c r="A13" t="s">
         <v>23</v>
       </c>
@@ -2264,7 +2258,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16">
       <c r="A14" t="s">
         <v>24</v>
       </c>
@@ -2288,7 +2282,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16">
       <c r="A15" t="s">
         <v>25</v>
       </c>
@@ -2312,7 +2306,7 @@
         <v>65.999999999999986</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16">
       <c r="A16" t="s">
         <v>26</v>
       </c>
@@ -2336,7 +2330,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:16">
       <c r="A17" t="s">
         <v>27</v>
       </c>
@@ -2360,7 +2354,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:16">
       <c r="A18" t="s">
         <v>28</v>
       </c>
@@ -2384,7 +2378,7 @@
         <v>65.999999999999986</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:16">
       <c r="A19" t="s">
         <v>29</v>
       </c>
@@ -2408,7 +2402,7 @@
         <v>65.600000000000009</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:16">
       <c r="A20" t="s">
         <v>30</v>
       </c>
@@ -2432,7 +2426,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:16">
       <c r="A21" t="s">
         <v>31</v>
       </c>
@@ -2450,7 +2444,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:16">
       <c r="A22" t="s">
         <v>32</v>
       </c>
@@ -2474,7 +2468,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:16">
       <c r="A23" t="s">
         <v>33</v>
       </c>
@@ -2498,7 +2492,7 @@
         <v>90.999999999999986</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:16">
       <c r="A24" t="s">
         <v>34</v>
       </c>
@@ -2522,7 +2516,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:16">
       <c r="A25" t="s">
         <v>35</v>
       </c>
@@ -2546,7 +2540,7 @@
         <v>65.999999999999986</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:16">
       <c r="A26" t="s">
         <v>36</v>
       </c>
@@ -2570,7 +2564,7 @@
         <v>61.999999999999986</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:16">
       <c r="A27" t="s">
         <v>37</v>
       </c>
@@ -2594,7 +2588,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:16">
       <c r="A28" t="s">
         <v>38</v>
       </c>
@@ -2618,9 +2612,9 @@
         <v>44.000000000000007</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:16">
       <c r="A29" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="B29">
         <v>1</v>
@@ -2641,9 +2635,6 @@
         <f>IFERROR(SUM(B29:O29)/COUNT(B29:O29)*100, 0)</f>
         <v>82</v>
       </c>
-    </row>
-    <row r="47" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D47" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/actitud.xlsx
+++ b/actitud.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27002"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ef4cc4ddfd4d7cd1/Github/3C/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="133" documentId="11_F25DC773A252ABDACC10482D291E55885BDE58EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FA840FB3-6DAB-4D79-9098-CD9130C59459}"/>
+  <xr:revisionPtr revIDLastSave="134" documentId="11_F25DC773A252ABDACC10482D291E55885BDE58EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{544F7DF2-45A8-4243-BB96-77842D14CF98}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Astronauta" sheetId="1" r:id="rId1"/>
@@ -23,17 +23,6 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
@@ -207,7 +196,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -526,17 +515,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="14.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -574,7 +563,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -584,12 +573,15 @@
       <c r="C2">
         <v>1</v>
       </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
       <c r="L2">
         <f>IFERROR(SUM(B2:K2)/COUNT(B2:K2)*100, 0)</f>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>66.666666666666657</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -599,12 +591,15 @@
       <c r="C3">
         <v>0</v>
       </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
       <c r="L3">
         <f t="shared" ref="L3:L29" si="0">IFERROR(SUM(B3:K3)/COUNT(B3:K3)*100, 0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>33.333333333333329</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -619,7 +614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -629,12 +624,15 @@
       <c r="C5">
         <v>1</v>
       </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
       <c r="L5">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -649,7 +647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -659,12 +657,15 @@
       <c r="C7">
         <v>0.5</v>
       </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
       <c r="L7">
         <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>16.666666666666664</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -674,12 +675,15 @@
       <c r="C8">
         <v>0.4</v>
       </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
       <c r="L8">
         <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>46.666666666666664</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -689,12 +693,15 @@
       <c r="C9">
         <v>1</v>
       </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
       <c r="L9">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -706,7 +713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -716,12 +723,15 @@
       <c r="C11">
         <v>1</v>
       </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
       <c r="L11">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -731,12 +741,15 @@
       <c r="C12">
         <v>0.5</v>
       </c>
+      <c r="D12">
+        <v>0.5</v>
+      </c>
       <c r="L12">
         <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>33.333333333333329</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>23</v>
       </c>
@@ -746,12 +759,15 @@
       <c r="C13">
         <v>0.5</v>
       </c>
+      <c r="D13">
+        <v>0.5</v>
+      </c>
       <c r="L13">
         <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>33.333333333333329</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>24</v>
       </c>
@@ -761,12 +777,15 @@
       <c r="C14">
         <v>1</v>
       </c>
+      <c r="D14">
+        <v>0.5</v>
+      </c>
       <c r="L14">
         <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>83.333333333333343</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>25</v>
       </c>
@@ -776,12 +795,15 @@
       <c r="C15">
         <v>0.5</v>
       </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
       <c r="L15">
         <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>16.666666666666664</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>26</v>
       </c>
@@ -791,12 +813,15 @@
       <c r="C16">
         <v>0.5</v>
       </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
       <c r="L16">
         <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>16.666666666666664</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>27</v>
       </c>
@@ -806,12 +831,15 @@
       <c r="C17">
         <v>1</v>
       </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
       <c r="L17">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>28</v>
       </c>
@@ -821,12 +849,15 @@
       <c r="C18">
         <v>1</v>
       </c>
+      <c r="D18">
+        <v>0.6</v>
+      </c>
       <c r="L18">
         <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>86.666666666666671</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>29</v>
       </c>
@@ -836,12 +867,15 @@
       <c r="C19">
         <v>0.5</v>
       </c>
+      <c r="D19">
+        <v>0.4</v>
+      </c>
       <c r="L19">
         <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>30</v>
       </c>
@@ -851,12 +885,15 @@
       <c r="C20">
         <v>1</v>
       </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
       <c r="L20">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>31</v>
       </c>
@@ -866,12 +903,15 @@
       <c r="C21">
         <v>0</v>
       </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
       <c r="L21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>32</v>
       </c>
@@ -881,12 +921,15 @@
       <c r="C22">
         <v>0.8</v>
       </c>
+      <c r="D22">
+        <v>0.8</v>
+      </c>
       <c r="L22">
         <f t="shared" si="0"/>
-        <v>40</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>53.333333333333336</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>33</v>
       </c>
@@ -896,12 +939,15 @@
       <c r="C23">
         <v>1</v>
       </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
       <c r="L23">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>34</v>
       </c>
@@ -911,12 +957,15 @@
       <c r="C24">
         <v>1</v>
       </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
       <c r="L24">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="1:12">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>35</v>
       </c>
@@ -926,12 +975,15 @@
       <c r="C25">
         <v>0.4</v>
       </c>
+      <c r="D25">
+        <v>0.6</v>
+      </c>
       <c r="L25">
         <f t="shared" si="0"/>
-        <v>70</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12">
+        <v>66.666666666666657</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>36</v>
       </c>
@@ -941,12 +993,15 @@
       <c r="C26">
         <v>0.5</v>
       </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
       <c r="L26">
         <f t="shared" si="0"/>
-        <v>75</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12">
+        <v>83.333333333333343</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>37</v>
       </c>
@@ -956,12 +1011,15 @@
       <c r="C27">
         <v>1</v>
       </c>
+      <c r="D27">
+        <v>0.7</v>
+      </c>
       <c r="L27">
         <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12">
+        <v>56.666666666666664</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>38</v>
       </c>
@@ -971,12 +1029,15 @@
       <c r="C28">
         <v>0.5</v>
       </c>
+      <c r="D28">
+        <v>0.7</v>
+      </c>
       <c r="L28">
         <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>39</v>
       </c>
@@ -986,9 +1047,12 @@
       <c r="C29">
         <v>1</v>
       </c>
+      <c r="D29">
+        <v>0.7</v>
+      </c>
       <c r="L29">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -1002,15 +1066,15 @@
   <dimension ref="A1:L29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="14.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1048,7 +1112,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -1057,13 +1121,16 @@
       </c>
       <c r="C2">
         <v>1</v>
+      </c>
+      <c r="D2">
+        <v>0.5</v>
       </c>
       <c r="L2">
         <f>IFERROR(SUM(B2:K2)/COUNT(B2:K2)*100, 0)</f>
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -1073,12 +1140,15 @@
       <c r="C3">
         <v>0</v>
       </c>
+      <c r="D3">
+        <v>0.5</v>
+      </c>
       <c r="L3">
         <f t="shared" ref="L3:L29" si="0">IFERROR(SUM(B3:K3)/COUNT(B3:K3)*100, 0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>16.666666666666664</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -1090,7 +1160,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -1100,12 +1170,15 @@
       <c r="C5">
         <v>1</v>
       </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
       <c r="L5">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -1117,7 +1190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -1127,12 +1200,15 @@
       <c r="C7">
         <v>0.7</v>
       </c>
+      <c r="D7">
+        <v>0.7</v>
+      </c>
       <c r="L7">
         <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>46.666666666666664</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -1142,12 +1218,15 @@
       <c r="C8">
         <v>0.8</v>
       </c>
+      <c r="D8">
+        <v>0.7</v>
+      </c>
       <c r="L8">
         <f t="shared" si="0"/>
-        <v>40</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -1157,12 +1236,15 @@
       <c r="C9">
         <v>1</v>
       </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
       <c r="L9">
         <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>66.666666666666657</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -1174,7 +1256,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -1184,12 +1266,15 @@
       <c r="C11">
         <v>1</v>
       </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
       <c r="L11">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -1199,12 +1284,15 @@
       <c r="C12">
         <v>0.8</v>
       </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
       <c r="L12">
         <f t="shared" si="0"/>
-        <v>40</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>23</v>
       </c>
@@ -1214,12 +1302,15 @@
       <c r="C13">
         <v>0.8</v>
       </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
       <c r="L13">
         <f t="shared" si="0"/>
-        <v>40</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>24</v>
       </c>
@@ -1229,12 +1320,15 @@
       <c r="C14">
         <v>1</v>
       </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
       <c r="L14">
         <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>66.666666666666657</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>25</v>
       </c>
@@ -1244,12 +1338,15 @@
       <c r="C15">
         <v>0.25</v>
       </c>
+      <c r="D15">
+        <v>0.25</v>
+      </c>
       <c r="L15">
         <f t="shared" si="0"/>
-        <v>12.5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>16.666666666666664</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>26</v>
       </c>
@@ -1259,12 +1356,15 @@
       <c r="C16">
         <v>0.8</v>
       </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
       <c r="L16">
         <f t="shared" si="0"/>
-        <v>65</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>76.666666666666657</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>27</v>
       </c>
@@ -1274,12 +1374,15 @@
       <c r="C17">
         <v>1</v>
       </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
       <c r="L17">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>28</v>
       </c>
@@ -1289,12 +1392,15 @@
       <c r="C18">
         <v>1</v>
       </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
       <c r="L18">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>29</v>
       </c>
@@ -1304,12 +1410,15 @@
       <c r="C19">
         <v>0.4</v>
       </c>
+      <c r="D19">
+        <v>0.5</v>
+      </c>
       <c r="L19">
         <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>30</v>
       </c>
@@ -1319,12 +1428,15 @@
       <c r="C20">
         <v>0.9</v>
       </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
       <c r="L20">
         <f t="shared" si="0"/>
-        <v>95</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>96.666666666666671</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>31</v>
       </c>
@@ -1336,7 +1448,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>32</v>
       </c>
@@ -1346,12 +1458,15 @@
       <c r="C22">
         <v>0.8</v>
       </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
       <c r="L22">
         <f t="shared" si="0"/>
-        <v>40</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>33</v>
       </c>
@@ -1361,12 +1476,15 @@
       <c r="C23">
         <v>1</v>
       </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
       <c r="L23">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>34</v>
       </c>
@@ -1376,12 +1494,15 @@
       <c r="C24">
         <v>1</v>
       </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
       <c r="L24">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="1:12">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>35</v>
       </c>
@@ -1391,12 +1512,15 @@
       <c r="C25">
         <v>0</v>
       </c>
+      <c r="D25">
+        <v>0.3</v>
+      </c>
       <c r="L25">
         <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12">
+        <v>43.333333333333336</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>36</v>
       </c>
@@ -1406,12 +1530,15 @@
       <c r="C26">
         <v>0.6</v>
       </c>
+      <c r="D26">
+        <v>0.6</v>
+      </c>
       <c r="L26">
         <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>37</v>
       </c>
@@ -1421,12 +1548,15 @@
       <c r="C27">
         <v>1</v>
       </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
       <c r="L27">
         <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12">
+        <v>66.666666666666657</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>38</v>
       </c>
@@ -1436,12 +1566,15 @@
       <c r="C28">
         <v>0.6</v>
       </c>
+      <c r="D28">
+        <v>0.7</v>
+      </c>
       <c r="L28">
         <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12">
+        <v>43.333333333333329</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>39</v>
       </c>
@@ -1451,9 +1584,12 @@
       <c r="C29">
         <v>0.8</v>
       </c>
+      <c r="D29">
+        <v>0.8</v>
+      </c>
       <c r="L29">
         <f t="shared" si="0"/>
-        <v>90</v>
+        <v>86.666666666666671</v>
       </c>
     </row>
   </sheetData>
@@ -1465,16 +1601,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE015ABD-4175-4D18-A09E-4C4A7888DCD3}">
   <dimension ref="A1:L29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="14.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1512,7 +1648,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -1522,12 +1658,15 @@
       <c r="C2">
         <v>1</v>
       </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
       <c r="L2">
         <f>IFERROR(SUM(B2:K2)/COUNT(B2:K2)*100, 0)</f>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>66.666666666666657</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -1537,12 +1676,15 @@
       <c r="C3">
         <v>0</v>
       </c>
+      <c r="D3">
+        <v>0.5</v>
+      </c>
       <c r="L3">
         <f t="shared" ref="L3:L29" si="0">IFERROR(SUM(B3:K3)/COUNT(B3:K3)*100, 0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>16.666666666666664</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -1554,7 +1696,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -1564,12 +1706,15 @@
       <c r="C5">
         <v>1</v>
       </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
       <c r="L5">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -1581,7 +1726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -1591,12 +1736,15 @@
       <c r="C7">
         <v>0.5</v>
       </c>
+      <c r="D7">
+        <v>0.5</v>
+      </c>
       <c r="L7">
         <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>33.333333333333329</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -1606,12 +1754,15 @@
       <c r="C8">
         <v>1</v>
       </c>
+      <c r="D8">
+        <v>0.9</v>
+      </c>
       <c r="L8">
         <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>96.666666666666671</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -1621,12 +1772,15 @@
       <c r="C9">
         <v>1</v>
       </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
       <c r="L9">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -1638,7 +1792,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -1648,12 +1802,15 @@
       <c r="C11">
         <v>1</v>
       </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
       <c r="L11">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -1663,12 +1820,15 @@
       <c r="C12">
         <v>0.4</v>
       </c>
+      <c r="D12">
+        <v>0.5</v>
+      </c>
       <c r="L12">
         <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>23</v>
       </c>
@@ -1678,12 +1838,15 @@
       <c r="C13">
         <v>0.4</v>
       </c>
+      <c r="D13">
+        <v>0.5</v>
+      </c>
       <c r="L13">
         <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>24</v>
       </c>
@@ -1693,12 +1856,15 @@
       <c r="C14">
         <v>1</v>
       </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
       <c r="L14">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>25</v>
       </c>
@@ -1708,12 +1874,15 @@
       <c r="C15">
         <v>0.2</v>
       </c>
+      <c r="D15">
+        <v>0.3</v>
+      </c>
       <c r="L15">
         <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>16.666666666666664</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>26</v>
       </c>
@@ -1723,12 +1892,15 @@
       <c r="C16">
         <v>0.6</v>
       </c>
+      <c r="D16">
+        <v>0.6</v>
+      </c>
       <c r="L16">
         <f t="shared" si="0"/>
-        <v>80</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>73.333333333333343</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>27</v>
       </c>
@@ -1738,12 +1910,15 @@
       <c r="C17">
         <v>1</v>
       </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
       <c r="L17">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>28</v>
       </c>
@@ -1753,12 +1928,15 @@
       <c r="C18">
         <v>1</v>
       </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
       <c r="L18">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>29</v>
       </c>
@@ -1768,12 +1946,15 @@
       <c r="C19">
         <v>0.6</v>
       </c>
+      <c r="D19">
+        <v>0.5</v>
+      </c>
       <c r="L19">
         <f t="shared" si="0"/>
-        <v>80</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>30</v>
       </c>
@@ -1783,12 +1964,15 @@
       <c r="C20">
         <v>1</v>
       </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
       <c r="L20">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>31</v>
       </c>
@@ -1800,7 +1984,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>32</v>
       </c>
@@ -1810,12 +1994,15 @@
       <c r="C22">
         <v>0.7</v>
       </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
       <c r="L22">
         <f t="shared" si="0"/>
-        <v>85</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>33</v>
       </c>
@@ -1825,12 +2012,15 @@
       <c r="C23">
         <v>1</v>
       </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
       <c r="L23">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>34</v>
       </c>
@@ -1840,12 +2030,15 @@
       <c r="C24">
         <v>0.7</v>
       </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
       <c r="L24">
         <f t="shared" si="0"/>
-        <v>85</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>35</v>
       </c>
@@ -1855,12 +2048,15 @@
       <c r="C25">
         <v>0.6</v>
       </c>
+      <c r="D25">
+        <v>0.5</v>
+      </c>
       <c r="L25">
         <f t="shared" si="0"/>
-        <v>80</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>36</v>
       </c>
@@ -1870,12 +2066,15 @@
       <c r="C26">
         <v>0.6</v>
       </c>
+      <c r="D26">
+        <v>0.2</v>
+      </c>
       <c r="L26">
         <f t="shared" si="0"/>
-        <v>80</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>37</v>
       </c>
@@ -1885,12 +2084,15 @@
       <c r="C27">
         <v>1</v>
       </c>
+      <c r="D27">
+        <v>0.6</v>
+      </c>
       <c r="L27">
         <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12">
+        <v>53.333333333333336</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>38</v>
       </c>
@@ -1900,12 +2102,15 @@
       <c r="C28">
         <v>0.6</v>
       </c>
+      <c r="D28">
+        <v>0.6</v>
+      </c>
       <c r="L28">
         <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>39</v>
       </c>
@@ -1915,9 +2120,12 @@
       <c r="C29">
         <v>1</v>
       </c>
+      <c r="D29">
+        <v>0.7</v>
+      </c>
       <c r="L29">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -1929,16 +2137,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D45A07B9-F651-41BC-A481-395AA628394B}">
   <dimension ref="A1:P29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D47" sqref="D47"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="14.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1988,7 +2196,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -2008,11 +2216,11 @@
         <v>0.2</v>
       </c>
       <c r="P2">
-        <f>IFERROR(SUM(B2:O2)/COUNT(B2:O2)*100, 0)</f>
+        <f t="shared" ref="P2:P29" si="0">IFERROR(SUM(B2:O2)/COUNT(B2:O2)*100, 0)</f>
         <v>48.000000000000007</v>
       </c>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -2032,11 +2240,11 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <f>IFERROR(SUM(B3:O3)/COUNT(B3:O3)*100, 0)</f>
+        <f t="shared" si="0"/>
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -2050,11 +2258,11 @@
         <v>1</v>
       </c>
       <c r="P4">
-        <f>IFERROR(SUM(B4:O4)/COUNT(B4:O4)*100, 0)</f>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -2074,11 +2282,11 @@
         <v>1</v>
       </c>
       <c r="P5">
-        <f>IFERROR(SUM(B5:O5)/COUNT(B5:O5)*100, 0)</f>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -2092,11 +2300,11 @@
         <v>1</v>
       </c>
       <c r="P6">
-        <f>IFERROR(SUM(B6:O6)/COUNT(B6:O6)*100, 0)</f>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -2116,11 +2324,11 @@
         <v>0.25</v>
       </c>
       <c r="P7">
-        <f>IFERROR(SUM(B7:O7)/COUNT(B7:O7)*100, 0)</f>
+        <f t="shared" si="0"/>
         <v>70</v>
       </c>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -2140,11 +2348,11 @@
         <v>0.5</v>
       </c>
       <c r="P8">
-        <f>IFERROR(SUM(B8:O8)/COUNT(B8:O8)*100, 0)</f>
+        <f t="shared" si="0"/>
         <v>80</v>
       </c>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -2164,11 +2372,11 @@
         <v>1</v>
       </c>
       <c r="P9">
-        <f>IFERROR(SUM(B9:O9)/COUNT(B9:O9)*100, 0)</f>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -2182,11 +2390,11 @@
         <v>1</v>
       </c>
       <c r="P10">
-        <f>IFERROR(SUM(B10:O10)/COUNT(B10:O10)*100, 0)</f>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -2206,11 +2414,11 @@
         <v>1</v>
       </c>
       <c r="P11">
-        <f>IFERROR(SUM(B11:O11)/COUNT(B11:O11)*100, 0)</f>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -2230,11 +2438,11 @@
         <v>0.4</v>
       </c>
       <c r="P12">
-        <f>IFERROR(SUM(B12:O12)/COUNT(B12:O12)*100, 0)</f>
+        <f t="shared" si="0"/>
         <v>55.999999999999993</v>
       </c>
     </row>
-    <row r="13" spans="1:16">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>23</v>
       </c>
@@ -2254,11 +2462,11 @@
         <v>0.5</v>
       </c>
       <c r="P13">
-        <f>IFERROR(SUM(B13:O13)/COUNT(B13:O13)*100, 0)</f>
+        <f t="shared" si="0"/>
         <v>60</v>
       </c>
     </row>
-    <row r="14" spans="1:16">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>24</v>
       </c>
@@ -2278,11 +2486,11 @@
         <v>1</v>
       </c>
       <c r="P14">
-        <f>IFERROR(SUM(B14:O14)/COUNT(B14:O14)*100, 0)</f>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>25</v>
       </c>
@@ -2302,11 +2510,11 @@
         <v>0.15</v>
       </c>
       <c r="P15">
-        <f>IFERROR(SUM(B15:O15)/COUNT(B15:O15)*100, 0)</f>
+        <f t="shared" si="0"/>
         <v>65.999999999999986</v>
       </c>
     </row>
-    <row r="16" spans="1:16">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>26</v>
       </c>
@@ -2326,11 +2534,11 @@
         <v>0.3</v>
       </c>
       <c r="P16">
-        <f>IFERROR(SUM(B16:O16)/COUNT(B16:O16)*100, 0)</f>
+        <f t="shared" si="0"/>
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:16">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>27</v>
       </c>
@@ -2350,11 +2558,11 @@
         <v>0.9</v>
       </c>
       <c r="P17">
-        <f>IFERROR(SUM(B17:O17)/COUNT(B17:O17)*100, 0)</f>
+        <f t="shared" si="0"/>
         <v>96</v>
       </c>
     </row>
-    <row r="18" spans="1:16">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>28</v>
       </c>
@@ -2374,11 +2582,11 @@
         <v>0.65</v>
       </c>
       <c r="P18">
-        <f>IFERROR(SUM(B18:O18)/COUNT(B18:O18)*100, 0)</f>
+        <f t="shared" si="0"/>
         <v>65.999999999999986</v>
       </c>
     </row>
-    <row r="19" spans="1:16">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>29</v>
       </c>
@@ -2398,11 +2606,11 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="P19">
-        <f>IFERROR(SUM(B19:O19)/COUNT(B19:O19)*100, 0)</f>
+        <f t="shared" si="0"/>
         <v>65.600000000000009</v>
       </c>
     </row>
-    <row r="20" spans="1:16">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>30</v>
       </c>
@@ -2422,11 +2630,11 @@
         <v>0.25</v>
       </c>
       <c r="P20">
-        <f>IFERROR(SUM(B20:O20)/COUNT(B20:O20)*100, 0)</f>
+        <f t="shared" si="0"/>
         <v>70</v>
       </c>
     </row>
-    <row r="21" spans="1:16">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>31</v>
       </c>
@@ -2440,11 +2648,11 @@
         <v>1</v>
       </c>
       <c r="P21">
-        <f>IFERROR(SUM(B21:O21)/COUNT(B21:O21)*100, 0)</f>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>32</v>
       </c>
@@ -2464,11 +2672,11 @@
         <v>0.15</v>
       </c>
       <c r="P22">
-        <f>IFERROR(SUM(B22:O22)/COUNT(B22:O22)*100, 0)</f>
+        <f t="shared" si="0"/>
         <v>46</v>
       </c>
     </row>
-    <row r="23" spans="1:16">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>33</v>
       </c>
@@ -2488,11 +2696,11 @@
         <v>0.77500000000000002</v>
       </c>
       <c r="P23">
-        <f>IFERROR(SUM(B23:O23)/COUNT(B23:O23)*100, 0)</f>
+        <f t="shared" si="0"/>
         <v>90.999999999999986</v>
       </c>
     </row>
-    <row r="24" spans="1:16">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>34</v>
       </c>
@@ -2512,11 +2720,11 @@
         <v>0</v>
       </c>
       <c r="P24">
-        <f>IFERROR(SUM(B24:O24)/COUNT(B24:O24)*100, 0)</f>
+        <f t="shared" si="0"/>
         <v>40</v>
       </c>
     </row>
-    <row r="25" spans="1:16">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>35</v>
       </c>
@@ -2536,11 +2744,11 @@
         <v>0.15</v>
       </c>
       <c r="P25">
-        <f>IFERROR(SUM(B25:O25)/COUNT(B25:O25)*100, 0)</f>
+        <f t="shared" si="0"/>
         <v>65.999999999999986</v>
       </c>
     </row>
-    <row r="26" spans="1:16">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>36</v>
       </c>
@@ -2560,11 +2768,11 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="P26">
-        <f>IFERROR(SUM(B26:O26)/COUNT(B26:O26)*100, 0)</f>
+        <f t="shared" si="0"/>
         <v>61.999999999999986</v>
       </c>
     </row>
-    <row r="27" spans="1:16">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>37</v>
       </c>
@@ -2584,11 +2792,11 @@
         <v>0</v>
       </c>
       <c r="P27">
-        <f>IFERROR(SUM(B27:O27)/COUNT(B27:O27)*100, 0)</f>
+        <f t="shared" si="0"/>
         <v>40</v>
       </c>
     </row>
-    <row r="28" spans="1:16">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>38</v>
       </c>
@@ -2608,11 +2816,11 @@
         <v>0.6</v>
       </c>
       <c r="P28">
-        <f>IFERROR(SUM(B28:O28)/COUNT(B28:O28)*100, 0)</f>
+        <f t="shared" si="0"/>
         <v>44.000000000000007</v>
       </c>
     </row>
-    <row r="29" spans="1:16">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>39</v>
       </c>
@@ -2632,7 +2840,7 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="P29">
-        <f>IFERROR(SUM(B29:O29)/COUNT(B29:O29)*100, 0)</f>
+        <f t="shared" si="0"/>
         <v>82</v>
       </c>
     </row>

--- a/actitud.xlsx
+++ b/actitud.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ef4cc4ddfd4d7cd1/Github/3C/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="134" documentId="11_F25DC773A252ABDACC10482D291E55885BDE58EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{544F7DF2-45A8-4243-BB96-77842D14CF98}"/>
+  <xr:revisionPtr revIDLastSave="145" documentId="11_F25DC773A252ABDACC10482D291E55885BDE58EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E5FD2EF2-E27A-4C9B-9AA9-7DFE7161B186}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Astronauta" sheetId="1" r:id="rId1"/>
@@ -248,6 +248,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -515,11 +519,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="20.33203125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="9.6640625" bestFit="1" customWidth="1"/>
@@ -594,9 +598,12 @@
       <c r="D3">
         <v>1</v>
       </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
       <c r="L3">
         <f t="shared" ref="L3:L29" si="0">IFERROR(SUM(B3:K3)/COUNT(B3:K3)*100, 0)</f>
-        <v>33.333333333333329</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
@@ -726,6 +733,9 @@
       <c r="D11">
         <v>1</v>
       </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
       <c r="L11">
         <f t="shared" si="0"/>
         <v>100</v>
@@ -870,9 +880,12 @@
       <c r="D19">
         <v>0.4</v>
       </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
       <c r="L19">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>22.5</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
@@ -1602,7 +1615,7 @@
   <dimension ref="A1:L29"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1709,6 +1722,9 @@
       <c r="D5">
         <v>1</v>
       </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
       <c r="L5">
         <f t="shared" si="0"/>
         <v>100</v>
@@ -1757,9 +1773,12 @@
       <c r="D8">
         <v>0.9</v>
       </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
       <c r="L8">
         <f t="shared" si="0"/>
-        <v>96.666666666666671</v>
+        <v>72.5</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
@@ -1895,9 +1914,12 @@
       <c r="D16">
         <v>0.6</v>
       </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
       <c r="L16">
         <f t="shared" si="0"/>
-        <v>73.333333333333343</v>
+        <v>55.000000000000007</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
@@ -1997,9 +2019,12 @@
       <c r="D22">
         <v>1</v>
       </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
       <c r="L22">
         <f t="shared" si="0"/>
-        <v>90</v>
+        <v>92.5</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
@@ -2015,6 +2040,9 @@
       <c r="D23">
         <v>1</v>
       </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
       <c r="L23">
         <f t="shared" si="0"/>
         <v>100</v>
@@ -2105,9 +2133,12 @@
       <c r="D28">
         <v>0.6</v>
       </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
       <c r="L28">
         <f t="shared" si="0"/>
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
@@ -2137,8 +2168,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D45A07B9-F651-41BC-A481-395AA628394B}">
   <dimension ref="A1:P29"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2714,14 +2745,14 @@
         <v>1</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P24">
         <f t="shared" si="0"/>
-        <v>40</v>
+        <v>80</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.3">

--- a/actitud.xlsx
+++ b/actitud.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ef4cc4ddfd4d7cd1/Github/3C/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="145" documentId="11_F25DC773A252ABDACC10482D291E55885BDE58EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E5FD2EF2-E27A-4C9B-9AA9-7DFE7161B186}"/>
+  <xr:revisionPtr revIDLastSave="166" documentId="11_F25DC773A252ABDACC10482D291E55885BDE58EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{80F73251-156A-4EB1-831B-2EFA0F6F754E}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="55">
   <si>
     <t>Alumnos</t>
   </si>
@@ -190,6 +190,9 @@
   </si>
   <si>
     <t>T14</t>
+  </si>
+  <si>
+    <t>Sara Caballeria</t>
   </si>
 </sst>
 </file>
@@ -251,6 +254,10 @@
 </file>
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/persons/person0.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
@@ -2169,7 +2176,7 @@
   <dimension ref="A1:P29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+      <selection activeCell="P23" sqref="P23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2246,9 +2253,15 @@
       <c r="F2">
         <v>0.2</v>
       </c>
+      <c r="G2">
+        <v>0.5</v>
+      </c>
+      <c r="H2">
+        <v>0.5</v>
+      </c>
       <c r="P2">
         <f t="shared" ref="P2:P29" si="0">IFERROR(SUM(B2:O2)/COUNT(B2:O2)*100, 0)</f>
-        <v>48.000000000000007</v>
+        <v>48.571428571428577</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
@@ -2295,7 +2308,7 @@
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>54</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -2310,6 +2323,12 @@
         <v>1</v>
       </c>
       <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
         <v>1</v>
       </c>
       <c r="P5">
@@ -2354,9 +2373,15 @@
       <c r="F7">
         <v>0.25</v>
       </c>
+      <c r="G7">
+        <v>0.75</v>
+      </c>
+      <c r="H7">
+        <v>0.75</v>
+      </c>
       <c r="P7">
         <f t="shared" si="0"/>
-        <v>70</v>
+        <v>71.428571428571431</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.3">
@@ -2378,9 +2403,15 @@
       <c r="F8">
         <v>0.5</v>
       </c>
+      <c r="G8">
+        <v>0.75</v>
+      </c>
+      <c r="H8">
+        <v>0.75</v>
+      </c>
       <c r="P8">
         <f t="shared" si="0"/>
-        <v>80</v>
+        <v>78.571428571428569</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.3">
@@ -2402,6 +2433,12 @@
       <c r="F9">
         <v>1</v>
       </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
       <c r="P9">
         <f t="shared" si="0"/>
         <v>100</v>
@@ -2444,6 +2481,12 @@
       <c r="F11">
         <v>1</v>
       </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
       <c r="P11">
         <f t="shared" si="0"/>
         <v>100</v>
@@ -2516,6 +2559,12 @@
       <c r="F14">
         <v>1</v>
       </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
       <c r="P14">
         <f t="shared" si="0"/>
         <v>100</v>
@@ -2564,9 +2613,15 @@
       <c r="F16">
         <v>0.3</v>
       </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
       <c r="P16">
         <f t="shared" si="0"/>
-        <v>32</v>
+        <v>22.857142857142858</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.3">
@@ -2588,9 +2643,15 @@
       <c r="F17">
         <v>0.9</v>
       </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="H17">
+        <v>1</v>
+      </c>
       <c r="P17">
         <f t="shared" si="0"/>
-        <v>96</v>
+        <v>97.142857142857139</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.3">
@@ -2612,9 +2673,15 @@
       <c r="F18">
         <v>0.65</v>
       </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="H18">
+        <v>1</v>
+      </c>
       <c r="P18">
         <f t="shared" si="0"/>
-        <v>65.999999999999986</v>
+        <v>75.714285714285708</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.3">
@@ -2636,9 +2703,15 @@
       <c r="F19">
         <v>0.14000000000000001</v>
       </c>
+      <c r="G19">
+        <v>0.25</v>
+      </c>
+      <c r="H19">
+        <v>0.25</v>
+      </c>
       <c r="P19">
         <f t="shared" si="0"/>
-        <v>65.600000000000009</v>
+        <v>54</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.3">
@@ -2660,9 +2733,15 @@
       <c r="F20">
         <v>0.25</v>
       </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+      <c r="H20">
+        <v>1</v>
+      </c>
       <c r="P20">
         <f t="shared" si="0"/>
-        <v>70</v>
+        <v>78.571428571428569</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.3">
@@ -2702,9 +2781,15 @@
       <c r="F22">
         <v>0.15</v>
       </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="H22">
+        <v>1</v>
+      </c>
       <c r="P22">
         <f t="shared" si="0"/>
-        <v>46</v>
+        <v>61.428571428571423</v>
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.3">
@@ -2726,9 +2811,15 @@
       <c r="F23">
         <v>0.77500000000000002</v>
       </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+      <c r="H23">
+        <v>1</v>
+      </c>
       <c r="P23">
         <f t="shared" si="0"/>
-        <v>90.999999999999986</v>
+        <v>93.571428571428569</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.3">
@@ -2750,9 +2841,15 @@
       <c r="F24">
         <v>1</v>
       </c>
+      <c r="G24">
+        <v>0.5</v>
+      </c>
+      <c r="H24">
+        <v>0.5</v>
+      </c>
       <c r="P24">
         <f t="shared" si="0"/>
-        <v>80</v>
+        <v>71.428571428571431</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.3">
@@ -2774,9 +2871,15 @@
       <c r="F25">
         <v>0.15</v>
       </c>
+      <c r="G25">
+        <v>0.5</v>
+      </c>
+      <c r="H25">
+        <v>0.5</v>
+      </c>
       <c r="P25">
         <f t="shared" si="0"/>
-        <v>65.999999999999986</v>
+        <v>61.428571428571423</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.3">
@@ -2798,9 +2901,15 @@
       <c r="F26">
         <v>0.55000000000000004</v>
       </c>
+      <c r="G26">
+        <v>0.75</v>
+      </c>
+      <c r="H26">
+        <v>0.75</v>
+      </c>
       <c r="P26">
         <f t="shared" si="0"/>
-        <v>61.999999999999986</v>
+        <v>65.714285714285708</v>
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.3">
@@ -2822,9 +2931,15 @@
       <c r="F27">
         <v>0</v>
       </c>
+      <c r="G27">
+        <v>0.75</v>
+      </c>
+      <c r="H27">
+        <v>0.75</v>
+      </c>
       <c r="P27">
         <f t="shared" si="0"/>
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.3">
@@ -2846,9 +2961,15 @@
       <c r="F28">
         <v>0.6</v>
       </c>
+      <c r="G28">
+        <v>0.75</v>
+      </c>
+      <c r="H28">
+        <v>0.75</v>
+      </c>
       <c r="P28">
         <f t="shared" si="0"/>
-        <v>44.000000000000007</v>
+        <v>52.857142857142861</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.3">

--- a/actitud.xlsx
+++ b/actitud.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ef4cc4ddfd4d7cd1/Github/3C/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="166" documentId="11_F25DC773A252ABDACC10482D291E55885BDE58EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{80F73251-156A-4EB1-831B-2EFA0F6F754E}"/>
+  <xr:revisionPtr revIDLastSave="167" documentId="11_F25DC773A252ABDACC10482D291E55885BDE58EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3F74A320-D268-4A86-8061-3FF8A1CE8C23}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Astronauta" sheetId="1" r:id="rId1"/>
@@ -258,6 +258,10 @@
 </file>
 
 <file path=xl/persons/person0.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/persons/person1.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
@@ -526,8 +530,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -587,9 +591,12 @@
       <c r="D2">
         <v>1</v>
       </c>
+      <c r="E2">
+        <v>0.75</v>
+      </c>
       <c r="L2">
         <f>IFERROR(SUM(B2:K2)/COUNT(B2:K2)*100, 0)</f>
-        <v>66.666666666666657</v>
+        <v>68.75</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
@@ -641,6 +648,9 @@
       <c r="D5">
         <v>1</v>
       </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
       <c r="L5">
         <f t="shared" si="0"/>
         <v>100</v>
@@ -674,9 +684,12 @@
       <c r="D7">
         <v>0</v>
       </c>
+      <c r="E7">
+        <v>0.5</v>
+      </c>
       <c r="L7">
         <f t="shared" si="0"/>
-        <v>16.666666666666664</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
@@ -692,9 +705,12 @@
       <c r="D8">
         <v>1</v>
       </c>
+      <c r="E8">
+        <v>0.5</v>
+      </c>
       <c r="L8">
         <f t="shared" si="0"/>
-        <v>46.666666666666664</v>
+        <v>47.5</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
@@ -710,9 +726,12 @@
       <c r="D9">
         <v>1</v>
       </c>
+      <c r="E9">
+        <v>0.75</v>
+      </c>
       <c r="L9">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>93.75</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
@@ -761,9 +780,12 @@
       <c r="D12">
         <v>0.5</v>
       </c>
+      <c r="E12">
+        <v>0.5</v>
+      </c>
       <c r="L12">
         <f t="shared" si="0"/>
-        <v>33.333333333333329</v>
+        <v>37.5</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
@@ -779,9 +801,12 @@
       <c r="D13">
         <v>0.5</v>
       </c>
+      <c r="E13">
+        <v>0.5</v>
+      </c>
       <c r="L13">
         <f t="shared" si="0"/>
-        <v>33.333333333333329</v>
+        <v>37.5</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
@@ -797,9 +822,12 @@
       <c r="D14">
         <v>0.5</v>
       </c>
+      <c r="E14">
+        <v>0.75</v>
+      </c>
       <c r="L14">
         <f t="shared" si="0"/>
-        <v>83.333333333333343</v>
+        <v>81.25</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
@@ -815,9 +843,12 @@
       <c r="D15">
         <v>0</v>
       </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
       <c r="L15">
         <f t="shared" si="0"/>
-        <v>16.666666666666664</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
@@ -833,9 +864,12 @@
       <c r="D16">
         <v>0</v>
       </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
       <c r="L16">
         <f t="shared" si="0"/>
-        <v>16.666666666666664</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
@@ -851,9 +885,12 @@
       <c r="D17">
         <v>1</v>
       </c>
+      <c r="E17">
+        <v>0.75</v>
+      </c>
       <c r="L17">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>93.75</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
@@ -869,9 +906,12 @@
       <c r="D18">
         <v>0.6</v>
       </c>
+      <c r="E18">
+        <v>0.5</v>
+      </c>
       <c r="L18">
         <f t="shared" si="0"/>
-        <v>86.666666666666671</v>
+        <v>77.5</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
@@ -908,6 +948,9 @@
       <c r="D20">
         <v>1</v>
       </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
       <c r="L20">
         <f t="shared" si="0"/>
         <v>100</v>
@@ -944,9 +987,12 @@
       <c r="D22">
         <v>0.8</v>
       </c>
+      <c r="E22">
+        <v>0.5</v>
+      </c>
       <c r="L22">
         <f t="shared" si="0"/>
-        <v>53.333333333333336</v>
+        <v>52.5</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
@@ -962,6 +1008,9 @@
       <c r="D23">
         <v>1</v>
       </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
       <c r="L23">
         <f t="shared" si="0"/>
         <v>100</v>
@@ -980,9 +1029,12 @@
       <c r="D24">
         <v>1</v>
       </c>
+      <c r="E24">
+        <v>0.75</v>
+      </c>
       <c r="L24">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>93.75</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
@@ -998,9 +1050,12 @@
       <c r="D25">
         <v>0.6</v>
       </c>
+      <c r="E25">
+        <v>0.5</v>
+      </c>
       <c r="L25">
         <f t="shared" si="0"/>
-        <v>66.666666666666657</v>
+        <v>62.5</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
@@ -1016,9 +1071,12 @@
       <c r="D26">
         <v>1</v>
       </c>
+      <c r="E26">
+        <v>0.5</v>
+      </c>
       <c r="L26">
         <f t="shared" si="0"/>
-        <v>83.333333333333343</v>
+        <v>75</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.3">
@@ -1034,9 +1092,12 @@
       <c r="D27">
         <v>0.7</v>
       </c>
+      <c r="E27">
+        <v>0.5</v>
+      </c>
       <c r="L27">
         <f t="shared" si="0"/>
-        <v>56.666666666666664</v>
+        <v>55.000000000000007</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.3">
@@ -1052,9 +1113,12 @@
       <c r="D28">
         <v>0.7</v>
       </c>
+      <c r="E28">
+        <v>0.5</v>
+      </c>
       <c r="L28">
         <f t="shared" si="0"/>
-        <v>40</v>
+        <v>42.5</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
@@ -1070,9 +1134,12 @@
       <c r="D29">
         <v>0.7</v>
       </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
       <c r="L29">
         <f t="shared" si="0"/>
-        <v>90</v>
+        <v>92.5</v>
       </c>
     </row>
   </sheetData>
@@ -1086,7 +1153,7 @@
   <dimension ref="A1:L29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1145,9 +1212,12 @@
       <c r="D2">
         <v>0.5</v>
       </c>
+      <c r="E2">
+        <v>0.75</v>
+      </c>
       <c r="L2">
         <f>IFERROR(SUM(B2:K2)/COUNT(B2:K2)*100, 0)</f>
-        <v>50</v>
+        <v>56.25</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
@@ -1163,9 +1233,12 @@
       <c r="D3">
         <v>0.5</v>
       </c>
+      <c r="E3">
+        <v>0.5</v>
+      </c>
       <c r="L3">
         <f t="shared" ref="L3:L29" si="0">IFERROR(SUM(B3:K3)/COUNT(B3:K3)*100, 0)</f>
-        <v>16.666666666666664</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
@@ -1193,9 +1266,12 @@
       <c r="D5">
         <v>1</v>
       </c>
+      <c r="E5">
+        <v>0.75</v>
+      </c>
       <c r="L5">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>93.75</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
@@ -1223,9 +1299,12 @@
       <c r="D7">
         <v>0.7</v>
       </c>
+      <c r="E7">
+        <v>0.5</v>
+      </c>
       <c r="L7">
         <f t="shared" si="0"/>
-        <v>46.666666666666664</v>
+        <v>47.5</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
@@ -1241,6 +1320,9 @@
       <c r="D8">
         <v>0.7</v>
       </c>
+      <c r="E8">
+        <v>0.5</v>
+      </c>
       <c r="L8">
         <f t="shared" si="0"/>
         <v>50</v>
@@ -1259,9 +1341,12 @@
       <c r="D9">
         <v>1</v>
       </c>
+      <c r="E9">
+        <v>0.75</v>
+      </c>
       <c r="L9">
         <f t="shared" si="0"/>
-        <v>66.666666666666657</v>
+        <v>68.75</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
@@ -1289,6 +1374,9 @@
       <c r="D11">
         <v>1</v>
       </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
       <c r="L11">
         <f t="shared" si="0"/>
         <v>100</v>
@@ -1307,9 +1395,12 @@
       <c r="D12">
         <v>1</v>
       </c>
+      <c r="E12">
+        <v>0.75</v>
+      </c>
       <c r="L12">
         <f t="shared" si="0"/>
-        <v>60</v>
+        <v>63.749999999999993</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
@@ -1325,9 +1416,12 @@
       <c r="D13">
         <v>1</v>
       </c>
+      <c r="E13">
+        <v>0.75</v>
+      </c>
       <c r="L13">
         <f t="shared" si="0"/>
-        <v>60</v>
+        <v>63.749999999999993</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
@@ -1335,7 +1429,7 @@
         <v>24</v>
       </c>
       <c r="B14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -1343,9 +1437,12 @@
       <c r="D14">
         <v>1</v>
       </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
       <c r="L14">
         <f t="shared" si="0"/>
-        <v>66.666666666666657</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
@@ -1361,9 +1458,12 @@
       <c r="D15">
         <v>0.25</v>
       </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
       <c r="L15">
         <f t="shared" si="0"/>
-        <v>16.666666666666664</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
@@ -1379,9 +1479,12 @@
       <c r="D16">
         <v>1</v>
       </c>
+      <c r="E16">
+        <v>0.75</v>
+      </c>
       <c r="L16">
         <f t="shared" si="0"/>
-        <v>76.666666666666657</v>
+        <v>76.25</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
@@ -1397,9 +1500,12 @@
       <c r="D17">
         <v>1</v>
       </c>
+      <c r="E17">
+        <v>0.75</v>
+      </c>
       <c r="L17">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>93.75</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
@@ -1415,6 +1521,9 @@
       <c r="D18">
         <v>1</v>
       </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
       <c r="L18">
         <f t="shared" si="0"/>
         <v>100</v>
@@ -1433,9 +1542,12 @@
       <c r="D19">
         <v>0.5</v>
       </c>
+      <c r="E19">
+        <v>0.5</v>
+      </c>
       <c r="L19">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
@@ -1451,9 +1563,12 @@
       <c r="D20">
         <v>1</v>
       </c>
+      <c r="E20">
+        <v>0.75</v>
+      </c>
       <c r="L20">
         <f t="shared" si="0"/>
-        <v>96.666666666666671</v>
+        <v>91.25</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
@@ -1481,9 +1596,12 @@
       <c r="D22">
         <v>1</v>
       </c>
+      <c r="E22">
+        <v>0.75</v>
+      </c>
       <c r="L22">
         <f t="shared" si="0"/>
-        <v>60</v>
+        <v>63.749999999999993</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
@@ -1499,9 +1617,12 @@
       <c r="D23">
         <v>1</v>
       </c>
+      <c r="E23">
+        <v>0.75</v>
+      </c>
       <c r="L23">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>93.75</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
@@ -1517,9 +1638,12 @@
       <c r="D24">
         <v>1</v>
       </c>
+      <c r="E24">
+        <v>0.75</v>
+      </c>
       <c r="L24">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>93.75</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
@@ -1535,9 +1659,12 @@
       <c r="D25">
         <v>0.3</v>
       </c>
+      <c r="E25">
+        <v>0.75</v>
+      </c>
       <c r="L25">
         <f t="shared" si="0"/>
-        <v>43.333333333333336</v>
+        <v>51.249999999999993</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
@@ -1553,9 +1680,12 @@
       <c r="D26">
         <v>0.6</v>
       </c>
+      <c r="E26">
+        <v>0.5</v>
+      </c>
       <c r="L26">
         <f t="shared" si="0"/>
-        <v>40</v>
+        <v>42.5</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.3">
@@ -1571,9 +1701,12 @@
       <c r="D27">
         <v>1</v>
       </c>
+      <c r="E27">
+        <v>0.75</v>
+      </c>
       <c r="L27">
         <f t="shared" si="0"/>
-        <v>66.666666666666657</v>
+        <v>68.75</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.3">
@@ -1589,9 +1722,12 @@
       <c r="D28">
         <v>0.7</v>
       </c>
+      <c r="E28">
+        <v>0.5</v>
+      </c>
       <c r="L28">
         <f t="shared" si="0"/>
-        <v>43.333333333333329</v>
+        <v>44.999999999999993</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
@@ -1607,9 +1743,12 @@
       <c r="D29">
         <v>0.8</v>
       </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
       <c r="L29">
         <f t="shared" si="0"/>
-        <v>86.666666666666671</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -2175,7 +2314,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D45A07B9-F651-41BC-A481-395AA628394B}">
   <dimension ref="A1:P29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="P23" sqref="P23"/>
     </sheetView>
   </sheetViews>

--- a/actitud.xlsx
+++ b/actitud.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10907"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ef4cc4ddfd4d7cd1/Github/3C/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="167" documentId="11_F25DC773A252ABDACC10482D291E55885BDE58EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3F74A320-D268-4A86-8061-3FF8A1CE8C23}"/>
+  <xr:revisionPtr revIDLastSave="197" documentId="11_F25DC773A252ABDACC10482D291E55885BDE58EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9902B0DF-E8E5-944C-8969-B7AB61A60A55}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Astronauta" sheetId="1" r:id="rId1"/>
@@ -23,12 +23,23 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="56">
   <si>
     <t>Alumnos</t>
   </si>
@@ -193,6 +204,9 @@
   </si>
   <si>
     <t>Sara Caballeria</t>
+  </si>
+  <si>
+    <t>0.75</t>
   </si>
 </sst>
 </file>
@@ -251,18 +265,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
-<file path=xl/persons/person0.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
-<file path=xl/persons/person1.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -530,17 +532,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.609375" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.3125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.68359375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -578,7 +580,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -599,7 +601,7 @@
         <v>68.75</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -620,7 +622,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -635,7 +637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -651,12 +653,15 @@
       <c r="E5">
         <v>1</v>
       </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
       <c r="L5">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -671,7 +676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -692,7 +697,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -713,7 +718,7 @@
         <v>47.5</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -729,12 +734,15 @@
       <c r="E9">
         <v>0.75</v>
       </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
       <c r="L9">
         <f t="shared" si="0"/>
-        <v>93.75</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -746,7 +754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -762,12 +770,15 @@
       <c r="E11">
         <v>1</v>
       </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
       <c r="L11">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -788,7 +799,7 @@
         <v>37.5</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>23</v>
       </c>
@@ -809,7 +820,7 @@
         <v>37.5</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>24</v>
       </c>
@@ -830,7 +841,7 @@
         <v>81.25</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>25</v>
       </c>
@@ -851,7 +862,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>26</v>
       </c>
@@ -872,7 +883,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>27</v>
       </c>
@@ -893,7 +904,7 @@
         <v>93.75</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>28</v>
       </c>
@@ -914,7 +925,7 @@
         <v>77.5</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>29</v>
       </c>
@@ -935,7 +946,7 @@
         <v>22.5</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>30</v>
       </c>
@@ -956,7 +967,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>31</v>
       </c>
@@ -974,7 +985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>32</v>
       </c>
@@ -995,7 +1006,7 @@
         <v>52.5</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>33</v>
       </c>
@@ -1011,12 +1022,15 @@
       <c r="E23">
         <v>1</v>
       </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
       <c r="L23">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>34</v>
       </c>
@@ -1037,7 +1051,7 @@
         <v>93.75</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>35</v>
       </c>
@@ -1053,12 +1067,15 @@
       <c r="E25">
         <v>0.5</v>
       </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
       <c r="L25">
         <f t="shared" si="0"/>
-        <v>62.5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>36</v>
       </c>
@@ -1079,7 +1096,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>37</v>
       </c>
@@ -1100,7 +1117,7 @@
         <v>55.000000000000007</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>38</v>
       </c>
@@ -1121,7 +1138,7 @@
         <v>42.5</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>39</v>
       </c>
@@ -1152,16 +1169,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76A2E164-804C-4A26-8EDD-0B1C83E35910}">
   <dimension ref="A1:L29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.3125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1199,7 +1216,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -1220,7 +1237,7 @@
         <v>56.25</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -1241,7 +1258,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -1253,7 +1270,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -1274,7 +1291,7 @@
         <v>93.75</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -1286,7 +1303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -1307,7 +1324,7 @@
         <v>47.5</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -1328,7 +1345,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -1349,7 +1366,7 @@
         <v>68.75</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -1361,7 +1378,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -1382,7 +1399,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -1403,7 +1420,7 @@
         <v>63.749999999999993</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>23</v>
       </c>
@@ -1424,7 +1441,7 @@
         <v>63.749999999999993</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>24</v>
       </c>
@@ -1445,7 +1462,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>25</v>
       </c>
@@ -1466,7 +1483,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>26</v>
       </c>
@@ -1487,7 +1504,7 @@
         <v>76.25</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>27</v>
       </c>
@@ -1503,12 +1520,15 @@
       <c r="E17">
         <v>0.75</v>
       </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
       <c r="L17">
         <f t="shared" si="0"/>
-        <v>93.75</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>28</v>
       </c>
@@ -1529,7 +1549,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>29</v>
       </c>
@@ -1550,7 +1570,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>30</v>
       </c>
@@ -1571,7 +1591,7 @@
         <v>91.25</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>31</v>
       </c>
@@ -1583,7 +1603,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>32</v>
       </c>
@@ -1604,7 +1624,7 @@
         <v>63.749999999999993</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>33</v>
       </c>
@@ -1620,12 +1640,15 @@
       <c r="E23">
         <v>0.75</v>
       </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
       <c r="L23">
         <f t="shared" si="0"/>
-        <v>93.75</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>34</v>
       </c>
@@ -1646,7 +1669,7 @@
         <v>93.75</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>35</v>
       </c>
@@ -1667,7 +1690,7 @@
         <v>51.249999999999993</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>36</v>
       </c>
@@ -1688,7 +1711,7 @@
         <v>42.5</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>37</v>
       </c>
@@ -1709,7 +1732,7 @@
         <v>68.75</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>38</v>
       </c>
@@ -1725,12 +1748,15 @@
       <c r="E28">
         <v>0.5</v>
       </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
       <c r="L28">
         <f t="shared" si="0"/>
-        <v>44.999999999999993</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>39</v>
       </c>
@@ -1764,12 +1790,12 @@
       <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.3125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1807,7 +1833,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -1825,7 +1851,7 @@
         <v>66.666666666666657</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -1843,7 +1869,7 @@
         <v>16.666666666666664</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -1855,7 +1881,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -1876,7 +1902,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -1888,7 +1914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -1906,7 +1932,7 @@
         <v>33.333333333333329</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -1927,7 +1953,7 @@
         <v>72.5</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -1945,7 +1971,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -1957,7 +1983,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -1975,7 +2001,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -1993,7 +2019,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>23</v>
       </c>
@@ -2011,7 +2037,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>24</v>
       </c>
@@ -2029,7 +2055,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>25</v>
       </c>
@@ -2047,7 +2073,7 @@
         <v>16.666666666666664</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>26</v>
       </c>
@@ -2068,7 +2094,7 @@
         <v>55.000000000000007</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>27</v>
       </c>
@@ -2086,7 +2112,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>28</v>
       </c>
@@ -2104,7 +2130,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>29</v>
       </c>
@@ -2122,7 +2148,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>30</v>
       </c>
@@ -2140,7 +2166,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>31</v>
       </c>
@@ -2152,7 +2178,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>32</v>
       </c>
@@ -2173,7 +2199,7 @@
         <v>92.5</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>33</v>
       </c>
@@ -2194,7 +2220,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>34</v>
       </c>
@@ -2212,7 +2238,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>35</v>
       </c>
@@ -2230,7 +2256,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>36</v>
       </c>
@@ -2248,7 +2274,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>37</v>
       </c>
@@ -2266,7 +2292,7 @@
         <v>53.333333333333336</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>38</v>
       </c>
@@ -2287,7 +2313,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>39</v>
       </c>
@@ -2314,16 +2340,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D45A07B9-F651-41BC-A481-395AA628394B}">
   <dimension ref="A1:P29"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P23" sqref="P23"/>
+    <sheetView topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.3125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2373,7 +2399,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -2397,13 +2423,16 @@
       </c>
       <c r="H2">
         <v>0.5</v>
+      </c>
+      <c r="I2" t="s">
+        <v>55</v>
       </c>
       <c r="P2">
         <f t="shared" ref="P2:P29" si="0">IFERROR(SUM(B2:O2)/COUNT(B2:O2)*100, 0)</f>
         <v>48.571428571428577</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -2427,7 +2456,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -2445,7 +2474,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>54</v>
       </c>
@@ -2470,12 +2499,15 @@
       <c r="H5">
         <v>1</v>
       </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
       <c r="P5">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -2493,7 +2525,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -2523,7 +2555,7 @@
         <v>71.428571428571431</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -2548,12 +2580,15 @@
       <c r="H8">
         <v>0.75</v>
       </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
       <c r="P8">
         <f t="shared" si="0"/>
-        <v>78.571428571428569</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+        <v>81.25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -2578,12 +2613,15 @@
       <c r="H9">
         <v>1</v>
       </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
       <c r="P9">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -2601,7 +2639,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -2626,12 +2664,15 @@
       <c r="H11">
         <v>1</v>
       </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
       <c r="P11">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -2650,12 +2691,15 @@
       <c r="F12">
         <v>0.4</v>
       </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
       <c r="P12">
         <f t="shared" si="0"/>
-        <v>55.999999999999993</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+        <v>46.666666666666664</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>23</v>
       </c>
@@ -2674,12 +2718,15 @@
       <c r="F13">
         <v>0.5</v>
       </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
       <c r="P13">
         <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>24</v>
       </c>
@@ -2704,12 +2751,15 @@
       <c r="H14">
         <v>1</v>
       </c>
+      <c r="I14">
+        <v>1</v>
+      </c>
       <c r="P14">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>25</v>
       </c>
@@ -2728,12 +2778,15 @@
       <c r="F15">
         <v>0.15</v>
       </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
       <c r="P15">
         <f t="shared" si="0"/>
-        <v>65.999999999999986</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+        <v>54.999999999999993</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>26</v>
       </c>
@@ -2758,12 +2811,15 @@
       <c r="H16">
         <v>0</v>
       </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
       <c r="P16">
         <f t="shared" si="0"/>
-        <v>22.857142857142858</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>27</v>
       </c>
@@ -2788,12 +2844,15 @@
       <c r="H17">
         <v>1</v>
       </c>
+      <c r="I17">
+        <v>1</v>
+      </c>
       <c r="P17">
         <f t="shared" si="0"/>
-        <v>97.142857142857139</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+        <v>97.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>28</v>
       </c>
@@ -2818,12 +2877,15 @@
       <c r="H18">
         <v>1</v>
       </c>
+      <c r="I18">
+        <v>1</v>
+      </c>
       <c r="P18">
         <f t="shared" si="0"/>
-        <v>75.714285714285708</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+        <v>78.75</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>29</v>
       </c>
@@ -2853,7 +2915,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>30</v>
       </c>
@@ -2878,12 +2940,15 @@
       <c r="H20">
         <v>1</v>
       </c>
+      <c r="I20">
+        <v>1</v>
+      </c>
       <c r="P20">
         <f t="shared" si="0"/>
-        <v>78.571428571428569</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+        <v>81.25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>31</v>
       </c>
@@ -2901,7 +2966,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>32</v>
       </c>
@@ -2926,12 +2991,15 @@
       <c r="H22">
         <v>1</v>
       </c>
+      <c r="I22">
+        <v>1</v>
+      </c>
       <c r="P22">
         <f t="shared" si="0"/>
-        <v>61.428571428571423</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
+        <v>66.25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>33</v>
       </c>
@@ -2956,12 +3024,15 @@
       <c r="H23">
         <v>1</v>
       </c>
+      <c r="I23">
+        <v>1</v>
+      </c>
       <c r="P23">
         <f t="shared" si="0"/>
-        <v>93.571428571428569</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
+        <v>94.375</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>34</v>
       </c>
@@ -2986,12 +3057,15 @@
       <c r="H24">
         <v>0.5</v>
       </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
       <c r="P24">
         <f t="shared" si="0"/>
-        <v>71.428571428571431</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
+        <v>62.5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>35</v>
       </c>
@@ -3016,12 +3090,15 @@
       <c r="H25">
         <v>0.5</v>
       </c>
+      <c r="I25">
+        <v>1</v>
+      </c>
       <c r="P25">
         <f t="shared" si="0"/>
-        <v>61.428571428571423</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
+        <v>66.25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>36</v>
       </c>
@@ -3046,12 +3123,15 @@
       <c r="H26">
         <v>0.75</v>
       </c>
+      <c r="I26">
+        <v>1</v>
+      </c>
       <c r="P26">
         <f t="shared" si="0"/>
-        <v>65.714285714285708</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>37</v>
       </c>
@@ -3076,12 +3156,15 @@
       <c r="H27">
         <v>0.75</v>
       </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
       <c r="P27">
         <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
+        <v>43.75</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>38</v>
       </c>
@@ -3106,12 +3189,15 @@
       <c r="H28">
         <v>0.75</v>
       </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
       <c r="P28">
         <f t="shared" si="0"/>
-        <v>52.857142857142861</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
+        <v>46.25</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>39</v>
       </c>
@@ -3130,9 +3216,12 @@
       <c r="F29">
         <v>0.55000000000000004</v>
       </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
       <c r="P29">
         <f t="shared" si="0"/>
-        <v>82</v>
+        <v>68.333333333333329</v>
       </c>
     </row>
   </sheetData>

--- a/actitud.xlsx
+++ b/actitud.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10907"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ef4cc4ddfd4d7cd1/Github/3C/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="197" documentId="11_F25DC773A252ABDACC10482D291E55885BDE58EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9902B0DF-E8E5-944C-8969-B7AB61A60A55}"/>
+  <xr:revisionPtr revIDLastSave="198" documentId="11_F25DC773A252ABDACC10482D291E55885BDE58EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{98797FC2-CC29-42B2-B47A-2B370205B3EF}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,23 +23,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="57">
   <si>
     <t>Alumnos</t>
   </si>
@@ -207,6 +196,9 @@
   </si>
   <si>
     <t>0.75</t>
+  </si>
+  <si>
+    <t>Sara Caballería</t>
   </si>
 </sst>
 </file>
@@ -265,6 +257,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -536,13 +532,13 @@
       <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.609375" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.3125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.68359375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -580,7 +576,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -601,7 +597,7 @@
         <v>68.75</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -622,7 +618,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -637,7 +633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -661,7 +657,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -676,7 +672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -697,7 +693,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -718,7 +714,7 @@
         <v>47.5</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -742,7 +738,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -754,7 +750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -778,7 +774,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -799,7 +795,7 @@
         <v>37.5</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>23</v>
       </c>
@@ -820,7 +816,7 @@
         <v>37.5</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>24</v>
       </c>
@@ -841,7 +837,7 @@
         <v>81.25</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>25</v>
       </c>
@@ -862,7 +858,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>26</v>
       </c>
@@ -883,7 +879,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>27</v>
       </c>
@@ -904,7 +900,7 @@
         <v>93.75</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>28</v>
       </c>
@@ -925,7 +921,7 @@
         <v>77.5</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>29</v>
       </c>
@@ -946,7 +942,7 @@
         <v>22.5</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>30</v>
       </c>
@@ -967,7 +963,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>31</v>
       </c>
@@ -985,7 +981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>32</v>
       </c>
@@ -1006,7 +1002,7 @@
         <v>52.5</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>33</v>
       </c>
@@ -1030,7 +1026,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>34</v>
       </c>
@@ -1051,7 +1047,7 @@
         <v>93.75</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>35</v>
       </c>
@@ -1075,7 +1071,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>36</v>
       </c>
@@ -1096,7 +1092,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>37</v>
       </c>
@@ -1117,7 +1113,7 @@
         <v>55.000000000000007</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>38</v>
       </c>
@@ -1138,7 +1134,7 @@
         <v>42.5</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>39</v>
       </c>
@@ -1169,16 +1165,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76A2E164-804C-4A26-8EDD-0B1C83E35910}">
   <dimension ref="A1:L29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.3125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1216,7 +1212,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -1237,7 +1233,7 @@
         <v>56.25</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -1258,7 +1254,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -1270,9 +1266,9 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>56</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -1291,7 +1287,7 @@
         <v>93.75</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -1303,7 +1299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -1324,7 +1320,7 @@
         <v>47.5</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -1345,7 +1341,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -1366,7 +1362,7 @@
         <v>68.75</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -1378,7 +1374,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -1399,7 +1395,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -1420,7 +1416,7 @@
         <v>63.749999999999993</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>23</v>
       </c>
@@ -1441,7 +1437,7 @@
         <v>63.749999999999993</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>24</v>
       </c>
@@ -1462,7 +1458,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>25</v>
       </c>
@@ -1483,7 +1479,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>26</v>
       </c>
@@ -1504,7 +1500,7 @@
         <v>76.25</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>27</v>
       </c>
@@ -1528,7 +1524,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>28</v>
       </c>
@@ -1549,7 +1545,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>29</v>
       </c>
@@ -1570,7 +1566,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>30</v>
       </c>
@@ -1591,7 +1587,7 @@
         <v>91.25</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>31</v>
       </c>
@@ -1603,7 +1599,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>32</v>
       </c>
@@ -1624,7 +1620,7 @@
         <v>63.749999999999993</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>33</v>
       </c>
@@ -1648,7 +1644,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>34</v>
       </c>
@@ -1669,7 +1665,7 @@
         <v>93.75</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>35</v>
       </c>
@@ -1690,7 +1686,7 @@
         <v>51.249999999999993</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>36</v>
       </c>
@@ -1711,7 +1707,7 @@
         <v>42.5</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>37</v>
       </c>
@@ -1732,7 +1728,7 @@
         <v>68.75</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>38</v>
       </c>
@@ -1756,7 +1752,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>39</v>
       </c>
@@ -1790,12 +1786,12 @@
       <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.3125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1833,7 +1829,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -1851,7 +1847,7 @@
         <v>66.666666666666657</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -1869,7 +1865,7 @@
         <v>16.666666666666664</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -1881,7 +1877,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -1902,7 +1898,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -1914,7 +1910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -1932,7 +1928,7 @@
         <v>33.333333333333329</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -1953,7 +1949,7 @@
         <v>72.5</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -1971,7 +1967,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -1983,7 +1979,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -2001,7 +1997,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -2019,7 +2015,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>23</v>
       </c>
@@ -2037,7 +2033,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>24</v>
       </c>
@@ -2055,7 +2051,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>25</v>
       </c>
@@ -2073,7 +2069,7 @@
         <v>16.666666666666664</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>26</v>
       </c>
@@ -2094,7 +2090,7 @@
         <v>55.000000000000007</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>27</v>
       </c>
@@ -2112,7 +2108,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>28</v>
       </c>
@@ -2130,7 +2126,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>29</v>
       </c>
@@ -2148,7 +2144,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>30</v>
       </c>
@@ -2166,7 +2162,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>31</v>
       </c>
@@ -2178,7 +2174,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>32</v>
       </c>
@@ -2199,7 +2195,7 @@
         <v>92.5</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>33</v>
       </c>
@@ -2220,7 +2216,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>34</v>
       </c>
@@ -2238,7 +2234,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>35</v>
       </c>
@@ -2256,7 +2252,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>36</v>
       </c>
@@ -2274,7 +2270,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>37</v>
       </c>
@@ -2292,7 +2288,7 @@
         <v>53.333333333333336</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>38</v>
       </c>
@@ -2313,7 +2309,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>39</v>
       </c>
@@ -2344,12 +2340,12 @@
       <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.3125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2399,7 +2395,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -2432,7 +2428,7 @@
         <v>48.571428571428577</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -2456,7 +2452,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -2474,7 +2470,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>54</v>
       </c>
@@ -2507,7 +2503,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -2525,7 +2521,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -2555,7 +2551,7 @@
         <v>71.428571428571431</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -2588,7 +2584,7 @@
         <v>81.25</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -2621,7 +2617,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -2639,7 +2635,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -2672,7 +2668,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -2699,7 +2695,7 @@
         <v>46.666666666666664</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>23</v>
       </c>
@@ -2726,7 +2722,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>24</v>
       </c>
@@ -2759,7 +2755,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>25</v>
       </c>
@@ -2786,7 +2782,7 @@
         <v>54.999999999999993</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>26</v>
       </c>
@@ -2819,7 +2815,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>27</v>
       </c>
@@ -2852,7 +2848,7 @@
         <v>97.5</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>28</v>
       </c>
@@ -2885,7 +2881,7 @@
         <v>78.75</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>29</v>
       </c>
@@ -2915,7 +2911,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>30</v>
       </c>
@@ -2948,7 +2944,7 @@
         <v>81.25</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>31</v>
       </c>
@@ -2966,7 +2962,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>32</v>
       </c>
@@ -2999,7 +2995,7 @@
         <v>66.25</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>33</v>
       </c>
@@ -3032,7 +3028,7 @@
         <v>94.375</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>34</v>
       </c>
@@ -3065,7 +3061,7 @@
         <v>62.5</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>35</v>
       </c>
@@ -3098,7 +3094,7 @@
         <v>66.25</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>36</v>
       </c>
@@ -3131,7 +3127,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>37</v>
       </c>
@@ -3164,7 +3160,7 @@
         <v>43.75</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>38</v>
       </c>
@@ -3197,7 +3193,7 @@
         <v>46.25</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>39</v>
       </c>

--- a/actitud.xlsx
+++ b/actitud.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ef4cc4ddfd4d7cd1/Github/3C/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="198" documentId="11_F25DC773A252ABDACC10482D291E55885BDE58EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{98797FC2-CC29-42B2-B47A-2B370205B3EF}"/>
+  <xr:revisionPtr revIDLastSave="199" documentId="11_F25DC773A252ABDACC10482D291E55885BDE58EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{98950821-F39D-4A4B-9A8C-2B45E5AFB850}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Astronauta" sheetId="1" r:id="rId1"/>
@@ -28,41 +28,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="33">
   <si>
     <t>Alumnos</t>
   </si>
   <si>
-    <t>S1</t>
-  </si>
-  <si>
-    <t>S2</t>
-  </si>
-  <si>
-    <t>S3</t>
-  </si>
-  <si>
-    <t>S4</t>
-  </si>
-  <si>
-    <t>S5</t>
-  </si>
-  <si>
-    <t>S6</t>
-  </si>
-  <si>
-    <t>S7</t>
-  </si>
-  <si>
-    <t>S8</t>
-  </si>
-  <si>
-    <t>S9</t>
-  </si>
-  <si>
-    <t>S10</t>
-  </si>
-  <si>
     <t>Resultados</t>
   </si>
   <si>
@@ -148,48 +118,6 @@
   </si>
   <si>
     <t xml:space="preserve">Xulia Teixeira </t>
-  </si>
-  <si>
-    <t>T1</t>
-  </si>
-  <si>
-    <t>T2</t>
-  </si>
-  <si>
-    <t>T3</t>
-  </si>
-  <si>
-    <t>T4</t>
-  </si>
-  <si>
-    <t>T5</t>
-  </si>
-  <si>
-    <t>T6</t>
-  </si>
-  <si>
-    <t>T7</t>
-  </si>
-  <si>
-    <t>T8</t>
-  </si>
-  <si>
-    <t>T9</t>
-  </si>
-  <si>
-    <t>T10</t>
-  </si>
-  <si>
-    <t>T11</t>
-  </si>
-  <si>
-    <t>T12</t>
-  </si>
-  <si>
-    <t>T13</t>
-  </si>
-  <si>
-    <t>T14</t>
   </si>
   <si>
     <t>Sara Caballeria</t>
@@ -240,8 +168,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment textRotation="90"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -528,57 +462,51 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L29"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="B1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="11" width="3.5546875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="9.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
+      <c r="B1" s="1">
+        <v>45200</v>
+      </c>
+      <c r="C1" s="1">
+        <v>45206</v>
+      </c>
+      <c r="D1" s="1">
+        <v>45213</v>
+      </c>
+      <c r="E1" s="1">
+        <v>45220</v>
+      </c>
+      <c r="F1" s="1">
+        <v>45227</v>
+      </c>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
       <c r="L1" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -599,7 +527,7 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -620,7 +548,7 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -635,7 +563,7 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -659,7 +587,7 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -674,7 +602,7 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -695,7 +623,7 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -716,7 +644,7 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -740,7 +668,7 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -752,7 +680,7 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -776,7 +704,7 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -797,7 +725,7 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -818,7 +746,7 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -839,7 +767,7 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -860,7 +788,7 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -881,7 +809,7 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -902,7 +830,7 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="B18">
         <v>1</v>
@@ -923,7 +851,7 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -944,7 +872,7 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="B20">
         <v>1</v>
@@ -965,7 +893,7 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -983,7 +911,7 @@
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1004,7 +932,7 @@
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="B23">
         <v>1</v>
@@ -1028,7 +956,7 @@
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="B24">
         <v>1</v>
@@ -1049,7 +977,7 @@
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="B25">
         <v>1</v>
@@ -1073,7 +1001,7 @@
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="B26">
         <v>1</v>
@@ -1094,7 +1022,7 @@
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1115,7 +1043,7 @@
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -1136,7 +1064,7 @@
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="B29">
         <v>1</v>
@@ -1165,56 +1093,44 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76A2E164-804C-4A26-8EDD-0B1C83E35910}">
   <dimension ref="A1:L29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="3.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
+      <c r="B1" s="1">
+        <v>45200</v>
+      </c>
+      <c r="C1" s="1">
+        <v>45206</v>
+      </c>
+      <c r="D1" s="1">
+        <v>45213</v>
+      </c>
+      <c r="E1" s="1">
+        <v>45220</v>
+      </c>
+      <c r="F1" s="1">
+        <v>45227</v>
       </c>
       <c r="L1" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -1235,7 +1151,7 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -1256,7 +1172,7 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -1268,7 +1184,7 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>56</v>
+        <v>32</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -1289,7 +1205,7 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -1301,7 +1217,7 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -1322,7 +1238,7 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -1343,7 +1259,7 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -1364,7 +1280,7 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -1376,7 +1292,7 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -1397,7 +1313,7 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -1418,7 +1334,7 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -1439,7 +1355,7 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -1460,7 +1376,7 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -1481,7 +1397,7 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="B16">
         <v>0.5</v>
@@ -1502,7 +1418,7 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -1526,7 +1442,7 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="B18">
         <v>1</v>
@@ -1547,7 +1463,7 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -1568,7 +1484,7 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="B20">
         <v>1</v>
@@ -1589,7 +1505,7 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="B21">
         <v>1</v>
@@ -1601,7 +1517,7 @@
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1622,7 +1538,7 @@
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="B23">
         <v>1</v>
@@ -1646,7 +1562,7 @@
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="B24">
         <v>1</v>
@@ -1667,7 +1583,7 @@
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="B25">
         <v>1</v>
@@ -1688,7 +1604,7 @@
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -1709,7 +1625,7 @@
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1730,7 +1646,7 @@
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -1754,7 +1670,7 @@
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="B29">
         <v>1</v>
@@ -1782,56 +1698,42 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE015ABD-4175-4D18-A09E-4C4A7888DCD3}">
   <dimension ref="A1:L29"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="3.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
+      <c r="B1" s="1">
+        <v>45200</v>
+      </c>
+      <c r="C1" s="1">
+        <v>45206</v>
+      </c>
+      <c r="D1" s="1">
+        <v>45213</v>
+      </c>
+      <c r="E1" s="1">
+        <v>45220</v>
+      </c>
+      <c r="F1" s="1"/>
       <c r="L1" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -1849,7 +1751,7 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -1867,7 +1769,7 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -1879,7 +1781,7 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -1900,7 +1802,7 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -1912,7 +1814,7 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -1930,7 +1832,7 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -1951,7 +1853,7 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -1969,7 +1871,7 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -1981,7 +1883,7 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -1999,7 +1901,7 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -2017,7 +1919,7 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -2035,7 +1937,7 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -2053,7 +1955,7 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -2071,7 +1973,7 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="B16">
         <v>1</v>
@@ -2092,7 +1994,7 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -2110,7 +2012,7 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="B18">
         <v>1</v>
@@ -2128,7 +2030,7 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B19">
         <v>1</v>
@@ -2146,7 +2048,7 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="B20">
         <v>1</v>
@@ -2164,7 +2066,7 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="B21">
         <v>1</v>
@@ -2176,7 +2078,7 @@
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="B22">
         <v>1</v>
@@ -2197,7 +2099,7 @@
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="B23">
         <v>1</v>
@@ -2218,7 +2120,7 @@
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="B24">
         <v>1</v>
@@ -2236,7 +2138,7 @@
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="B25">
         <v>1</v>
@@ -2254,7 +2156,7 @@
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="B26">
         <v>1</v>
@@ -2272,7 +2174,7 @@
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -2290,7 +2192,7 @@
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -2311,7 +2213,7 @@
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="B29">
         <v>1</v>
@@ -2336,68 +2238,54 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D45A07B9-F651-41BC-A481-395AA628394B}">
   <dimension ref="A1:P29"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="3.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F1" t="s">
-        <v>44</v>
-      </c>
-      <c r="G1" t="s">
-        <v>45</v>
-      </c>
-      <c r="H1" t="s">
-        <v>46</v>
-      </c>
-      <c r="I1" t="s">
-        <v>47</v>
-      </c>
-      <c r="J1" t="s">
-        <v>48</v>
-      </c>
-      <c r="K1" t="s">
-        <v>49</v>
-      </c>
-      <c r="L1" t="s">
-        <v>50</v>
-      </c>
-      <c r="M1" t="s">
-        <v>51</v>
-      </c>
-      <c r="N1" t="s">
-        <v>52</v>
-      </c>
-      <c r="O1" t="s">
-        <v>53</v>
+      <c r="B1" s="1">
+        <v>45179</v>
+      </c>
+      <c r="C1" s="1">
+        <v>45186</v>
+      </c>
+      <c r="D1" s="1">
+        <v>45193</v>
+      </c>
+      <c r="E1" s="1">
+        <v>45200</v>
+      </c>
+      <c r="F1" s="1">
+        <v>45206</v>
+      </c>
+      <c r="G1" s="1">
+        <v>45213</v>
+      </c>
+      <c r="H1" s="1">
+        <v>45220</v>
+      </c>
+      <c r="I1" s="1">
+        <v>45227</v>
       </c>
       <c r="P1" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -2421,7 +2309,7 @@
         <v>0.5</v>
       </c>
       <c r="I2" t="s">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="P2">
         <f t="shared" ref="P2:P29" si="0">IFERROR(SUM(B2:O2)/COUNT(B2:O2)*100, 0)</f>
@@ -2430,7 +2318,7 @@
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -2454,7 +2342,7 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -2472,7 +2360,7 @@
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -2505,7 +2393,7 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -2523,7 +2411,7 @@
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -2553,7 +2441,7 @@
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -2586,7 +2474,7 @@
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -2619,7 +2507,7 @@
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -2637,7 +2525,7 @@
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -2670,7 +2558,7 @@
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -2697,7 +2585,7 @@
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -2724,7 +2612,7 @@
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -2757,7 +2645,7 @@
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -2784,7 +2672,7 @@
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -2817,7 +2705,7 @@
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -2850,7 +2738,7 @@
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -2883,7 +2771,7 @@
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B19">
         <v>1</v>
@@ -2913,7 +2801,7 @@
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="B20">
         <v>1</v>
@@ -2946,7 +2834,7 @@
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="B21">
         <v>1</v>
@@ -2964,7 +2852,7 @@
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="B22">
         <v>1</v>
@@ -2997,7 +2885,7 @@
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="B23">
         <v>1</v>
@@ -3030,7 +2918,7 @@
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -3063,7 +2951,7 @@
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="B25">
         <v>1</v>
@@ -3096,7 +2984,7 @@
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="B26">
         <v>1</v>
@@ -3129,7 +3017,7 @@
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="B27">
         <v>1</v>
@@ -3162,7 +3050,7 @@
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="B28">
         <v>1</v>
@@ -3195,7 +3083,7 @@
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="B29">
         <v>1</v>

--- a/actitud.xlsx
+++ b/actitud.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ef4cc4ddfd4d7cd1/Github/3C/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="199" documentId="11_F25DC773A252ABDACC10482D291E55885BDE58EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{98950821-F39D-4A4B-9A8C-2B45E5AFB850}"/>
+  <xr:revisionPtr revIDLastSave="228" documentId="11_F25DC773A252ABDACC10482D291E55885BDE58EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B3484FB2-B5A4-4DE4-A668-26345B51C686}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Astronauta" sheetId="1" r:id="rId1"/>
@@ -168,7 +168,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment textRotation="90"/>
@@ -176,6 +176,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment textRotation="90"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -463,20 +464,20 @@
   <dimension ref="A1:L29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="B1:F1"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="18.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="3.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3.453125" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="4" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="11" width="3.5546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="11" width="3.453125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="57.5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -495,7 +496,9 @@
       <c r="F1" s="1">
         <v>45227</v>
       </c>
-      <c r="G1" s="2"/>
+      <c r="G1" s="1">
+        <v>45229</v>
+      </c>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
@@ -504,7 +507,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -525,7 +528,7 @@
         <v>68.75</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -546,7 +549,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -561,7 +564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -580,12 +583,15 @@
       <c r="F5">
         <v>1</v>
       </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
       <c r="L5">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -600,7 +606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -621,7 +627,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -642,7 +648,7 @@
         <v>47.5</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -661,12 +667,15 @@
       <c r="F9">
         <v>1</v>
       </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
       <c r="L9">
         <f t="shared" si="0"/>
-        <v>95</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+        <v>95.833333333333343</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -678,7 +687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -702,7 +711,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -723,7 +732,7 @@
         <v>37.5</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -744,7 +753,7 @@
         <v>37.5</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -765,7 +774,7 @@
         <v>81.25</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -786,7 +795,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -807,7 +816,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>17</v>
       </c>
@@ -823,12 +832,15 @@
       <c r="E17">
         <v>0.75</v>
       </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
       <c r="L17">
         <f t="shared" si="0"/>
-        <v>93.75</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>18</v>
       </c>
@@ -849,7 +861,7 @@
         <v>77.5</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>19</v>
       </c>
@@ -870,7 +882,7 @@
         <v>22.5</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>20</v>
       </c>
@@ -891,7 +903,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>21</v>
       </c>
@@ -909,7 +921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>22</v>
       </c>
@@ -925,12 +937,15 @@
       <c r="E22">
         <v>0.5</v>
       </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
       <c r="L22">
         <f t="shared" si="0"/>
-        <v>52.5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>23</v>
       </c>
@@ -949,12 +964,15 @@
       <c r="F23">
         <v>1</v>
       </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
       <c r="L23">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>24</v>
       </c>
@@ -975,7 +993,7 @@
         <v>93.75</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>25</v>
       </c>
@@ -994,12 +1012,15 @@
       <c r="F25">
         <v>1</v>
       </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
       <c r="L25">
         <f t="shared" si="0"/>
-        <v>70</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>26</v>
       </c>
@@ -1020,7 +1041,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>27</v>
       </c>
@@ -1041,7 +1062,7 @@
         <v>55.000000000000007</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>28</v>
       </c>
@@ -1062,7 +1083,7 @@
         <v>42.5</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>29</v>
       </c>
@@ -1093,19 +1114,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76A2E164-804C-4A26-8EDD-0B1C83E35910}">
   <dimension ref="A1:L29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:F1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.26953125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="4" bestFit="1" customWidth="1"/>
     <col min="3" max="5" width="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="3.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="3.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="57.5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1124,11 +1145,14 @@
       <c r="F1" s="1">
         <v>45227</v>
       </c>
+      <c r="G1" s="3">
+        <v>45229</v>
+      </c>
       <c r="L1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1149,7 +1173,7 @@
         <v>56.25</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -1165,12 +1189,18 @@
       <c r="E3">
         <v>0.5</v>
       </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
       <c r="L3">
         <f t="shared" ref="L3:L29" si="0">IFERROR(SUM(B3:K3)/COUNT(B3:K3)*100, 0)</f>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+        <v>16.666666666666664</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1182,7 +1212,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>32</v>
       </c>
@@ -1203,7 +1233,7 @@
         <v>93.75</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -1215,7 +1245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -1236,7 +1266,7 @@
         <v>47.5</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -1257,7 +1287,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -1278,7 +1308,7 @@
         <v>68.75</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -1290,7 +1320,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -1311,7 +1341,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -1327,12 +1357,15 @@
       <c r="E12">
         <v>0.75</v>
       </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
       <c r="L12">
         <f t="shared" si="0"/>
-        <v>63.749999999999993</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -1353,7 +1386,7 @@
         <v>63.749999999999993</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -1374,7 +1407,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -1390,12 +1423,18 @@
       <c r="E15">
         <v>0</v>
       </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
       <c r="L15">
         <f t="shared" si="0"/>
-        <v>12.5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+        <v>8.3333333333333321</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -1416,7 +1455,7 @@
         <v>76.25</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>17</v>
       </c>
@@ -1440,7 +1479,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>18</v>
       </c>
@@ -1461,7 +1500,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>19</v>
       </c>
@@ -1482,7 +1521,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>20</v>
       </c>
@@ -1503,7 +1542,7 @@
         <v>91.25</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>21</v>
       </c>
@@ -1515,7 +1554,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>22</v>
       </c>
@@ -1536,7 +1575,7 @@
         <v>63.749999999999993</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>23</v>
       </c>
@@ -1555,12 +1594,15 @@
       <c r="F23">
         <v>0</v>
       </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
       <c r="L23">
         <f t="shared" si="0"/>
-        <v>75</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+        <v>62.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>24</v>
       </c>
@@ -1581,7 +1623,7 @@
         <v>93.75</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>25</v>
       </c>
@@ -1602,7 +1644,7 @@
         <v>51.249999999999993</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>26</v>
       </c>
@@ -1623,7 +1665,7 @@
         <v>42.5</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>27</v>
       </c>
@@ -1644,7 +1686,7 @@
         <v>68.75</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>28</v>
       </c>
@@ -1663,12 +1705,15 @@
       <c r="F28">
         <v>0</v>
       </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
       <c r="L28">
         <f t="shared" si="0"/>
-        <v>36</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>29</v>
       </c>
@@ -1702,15 +1747,15 @@
       <selection activeCell="B1" sqref="B1:C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="20.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="3.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3.453125" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="3.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="3.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="57.5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1731,7 +1776,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1749,7 +1794,7 @@
         <v>66.666666666666657</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -1767,7 +1812,7 @@
         <v>16.666666666666664</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1779,7 +1824,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -1800,7 +1845,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -1812,7 +1857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -1830,7 +1875,7 @@
         <v>33.333333333333329</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -1851,7 +1896,7 @@
         <v>72.5</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -1869,7 +1914,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -1881,7 +1926,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -1899,7 +1944,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -1917,7 +1962,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -1935,7 +1980,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -1953,7 +1998,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -1971,7 +2016,7 @@
         <v>16.666666666666664</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -1992,7 +2037,7 @@
         <v>55.000000000000007</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>17</v>
       </c>
@@ -2010,7 +2055,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>18</v>
       </c>
@@ -2028,7 +2073,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>19</v>
       </c>
@@ -2046,7 +2091,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>20</v>
       </c>
@@ -2064,7 +2109,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>21</v>
       </c>
@@ -2076,7 +2121,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>22</v>
       </c>
@@ -2097,7 +2142,7 @@
         <v>92.5</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>23</v>
       </c>
@@ -2118,7 +2163,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>24</v>
       </c>
@@ -2136,7 +2181,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>25</v>
       </c>
@@ -2154,7 +2199,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>26</v>
       </c>
@@ -2172,7 +2217,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>27</v>
       </c>
@@ -2190,7 +2235,7 @@
         <v>53.333333333333336</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>28</v>
       </c>
@@ -2211,7 +2256,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>29</v>
       </c>
@@ -2238,20 +2283,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D45A07B9-F651-41BC-A481-395AA628394B}">
   <dimension ref="A1:P29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="20.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="3.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="6" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="3.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="6.08984375" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="4.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" ht="57.5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2279,11 +2324,12 @@
       <c r="I1" s="1">
         <v>45227</v>
       </c>
+      <c r="J1" s="3"/>
       <c r="P1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -2311,12 +2357,15 @@
       <c r="I2" t="s">
         <v>31</v>
       </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
       <c r="P2">
         <f t="shared" ref="P2:P29" si="0">IFERROR(SUM(B2:O2)/COUNT(B2:O2)*100, 0)</f>
-        <v>48.571428571428577</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+        <v>42.500000000000007</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -2340,7 +2389,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -2358,7 +2407,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>30</v>
       </c>
@@ -2386,12 +2435,15 @@
       <c r="I5">
         <v>1</v>
       </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
       <c r="P5">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -2409,7 +2461,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -2439,7 +2491,7 @@
         <v>71.428571428571431</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -2472,7 +2524,7 @@
         <v>81.25</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -2500,12 +2552,15 @@
       <c r="I9">
         <v>1</v>
       </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
       <c r="P9">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -2523,7 +2578,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -2556,7 +2611,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -2583,7 +2638,7 @@
         <v>46.666666666666664</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -2602,15 +2657,18 @@
       <c r="F13">
         <v>0.5</v>
       </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="P13">
         <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+        <v>42.857142857142854</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -2643,7 +2701,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -2662,15 +2720,18 @@
       <c r="F15">
         <v>0.15</v>
       </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="P15">
         <f t="shared" si="0"/>
-        <v>54.999999999999993</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+        <v>47.142857142857139</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -2703,7 +2764,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>17</v>
       </c>
@@ -2731,12 +2792,15 @@
       <c r="I17">
         <v>1</v>
       </c>
+      <c r="J17">
+        <v>1</v>
+      </c>
       <c r="P17">
         <f t="shared" si="0"/>
-        <v>97.5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+        <v>97.777777777777786</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>18</v>
       </c>
@@ -2769,7 +2833,7 @@
         <v>78.75</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>19</v>
       </c>
@@ -2794,12 +2858,15 @@
       <c r="H19">
         <v>0.25</v>
       </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
       <c r="P19">
         <f t="shared" si="0"/>
-        <v>54</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+        <v>47.25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>20</v>
       </c>
@@ -2832,7 +2899,7 @@
         <v>81.25</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>21</v>
       </c>
@@ -2850,7 +2917,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>22</v>
       </c>
@@ -2878,12 +2945,15 @@
       <c r="I22">
         <v>1</v>
       </c>
+      <c r="J22">
+        <v>1</v>
+      </c>
       <c r="P22">
         <f t="shared" si="0"/>
-        <v>66.25</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>23</v>
       </c>
@@ -2911,12 +2981,15 @@
       <c r="I23">
         <v>1</v>
       </c>
+      <c r="J23">
+        <v>1</v>
+      </c>
       <c r="P23">
         <f t="shared" si="0"/>
-        <v>94.375</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>24</v>
       </c>
@@ -2949,7 +3022,7 @@
         <v>62.5</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>25</v>
       </c>
@@ -2977,12 +3050,15 @@
       <c r="I25">
         <v>1</v>
       </c>
+      <c r="J25">
+        <v>1</v>
+      </c>
       <c r="P25">
         <f t="shared" si="0"/>
-        <v>66.25</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>26</v>
       </c>
@@ -3010,12 +3086,15 @@
       <c r="I26">
         <v>1</v>
       </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
       <c r="P26">
         <f t="shared" si="0"/>
-        <v>70</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
+        <v>62.222222222222221</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>27</v>
       </c>
@@ -3048,7 +3127,7 @@
         <v>43.75</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>28</v>
       </c>
@@ -3081,7 +3160,7 @@
         <v>46.25</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>29</v>
       </c>
